--- a/po_coverage_analysis/po_coverage_summary.xlsx
+++ b/po_coverage_analysis/po_coverage_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K997"/>
+  <dimension ref="A1:K1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>527777777.79</v>
+        <v>536363636.37</v>
       </c>
       <c r="K8" t="inlineStr"/>
     </row>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>527777777.79</v>
+        <v>536363636.37</v>
       </c>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>903225806.47</v>
+        <v>906250000.02</v>
       </c>
       <c r="K13" t="inlineStr"/>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-05-21 to 2023-09-24</t>
+          <t>2023-05-21 to 2023-11-12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1041666666.74</v>
+        <v>1030612244.97</v>
       </c>
       <c r="K15" t="inlineStr"/>
     </row>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4888888889.47</v>
+        <v>4586206897.09</v>
       </c>
       <c r="K16" t="inlineStr"/>
     </row>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1568807339.46</v>
+        <v>1594594594.6</v>
       </c>
       <c r="K20" t="inlineStr"/>
     </row>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>904761904.78</v>
+        <v>907692307.71</v>
       </c>
       <c r="K22" t="inlineStr"/>
     </row>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>904761904.78</v>
+        <v>907692307.71</v>
       </c>
       <c r="K23" t="inlineStr"/>
     </row>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1600000000.01</v>
+        <v>1626168224.31</v>
       </c>
       <c r="K30" t="inlineStr"/>
     </row>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1600000000.01</v>
+        <v>1626168224.31</v>
       </c>
       <c r="K31" t="inlineStr"/>
     </row>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>666666666.67</v>
+        <v>500000000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>523364486</v>
+        <v>537037037.0599999</v>
       </c>
       <c r="K34" t="inlineStr"/>
     </row>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>7.29</v>
+        <v>6.35</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.32</v>
+        <v>4.63</v>
       </c>
       <c r="K39" t="inlineStr"/>
     </row>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>553191489.37</v>
+        <v>562500000.01</v>
       </c>
       <c r="K44" t="inlineStr"/>
     </row>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2317757009.89</v>
+        <v>2293577982.18</v>
       </c>
       <c r="K48" t="inlineStr"/>
     </row>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3656862750.39</v>
+        <v>3586538466.89</v>
       </c>
       <c r="K52" t="inlineStr"/>
     </row>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4042105263.17</v>
+        <v>4000000000.01</v>
       </c>
       <c r="K56" t="inlineStr"/>
     </row>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3919191919.39</v>
+        <v>3910891089.37</v>
       </c>
       <c r="K61" t="inlineStr"/>
     </row>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>518181818.19</v>
+        <v>526785714.29</v>
       </c>
       <c r="K71" t="inlineStr"/>
     </row>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>4216981133.57</v>
+        <v>4231481482.94</v>
       </c>
       <c r="K72" t="inlineStr"/>
     </row>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>180000000.18</v>
+        <v>176470588.41</v>
       </c>
       <c r="K73" t="inlineStr"/>
     </row>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1087378640.79</v>
+        <v>1104761904.77</v>
       </c>
       <c r="K78" t="inlineStr"/>
     </row>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>538461538.47</v>
+        <v>547169811.33</v>
       </c>
       <c r="K79" t="inlineStr"/>
     </row>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>8600000000</v>
+        <v>10750000000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>11190476190.49</v>
+        <v>11287037037.05</v>
       </c>
       <c r="K82" t="inlineStr"/>
     </row>
@@ -2803,11 +2803,11 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>500000000</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2023-09-17 to 2024-03-03</t>
+          <t>2023-09-17 to 2023-09-17</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>518518518.54</v>
+        <v>531531531.55</v>
       </c>
       <c r="K84" t="inlineStr"/>
     </row>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>136363636.45</v>
+        <v>133333333.42</v>
       </c>
       <c r="K86" t="inlineStr"/>
     </row>
@@ -2927,11 +2927,11 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>210166666666.67</v>
+        <v>252200000000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2023-10-08 to 2024-12-29</t>
+          <t>2024-04-28 to 2024-12-29</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>161291262135.93</v>
+        <v>161424528301.9</v>
       </c>
       <c r="K88" t="inlineStr"/>
     </row>
@@ -2960,11 +2960,11 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>210166666666.67</v>
+        <v>252200000000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2023-10-08 to 2024-12-29</t>
+          <t>2024-04-28 to 2024-12-29</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>161291262135.93</v>
+        <v>161424528301.9</v>
       </c>
       <c r="K89" t="inlineStr"/>
     </row>
@@ -2993,11 +2993,11 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>210166666666.67</v>
+        <v>252200000000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2023-10-08 to 2024-12-29</t>
+          <t>2024-04-28 to 2024-12-29</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>161291262135.93</v>
+        <v>161424528301.9</v>
       </c>
       <c r="K90" t="inlineStr"/>
     </row>
@@ -3026,25 +3026,21 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>9.109999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>2023-07-23 to 2024-12-15</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>17.86</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>11.8</v>
+        <v>11.74</v>
       </c>
       <c r="K91" t="inlineStr"/>
     </row>
@@ -3077,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>157894737.72</v>
+        <v>142857143.7</v>
       </c>
       <c r="K92" t="inlineStr"/>
     </row>
@@ -3100,7 +3096,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2023-05-21 to 2023-12-03</t>
+          <t>2023-05-21 to 2023-12-17</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -3110,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>156250000.87</v>
+        <v>158730159.61</v>
       </c>
       <c r="K93" t="inlineStr"/>
     </row>
@@ -3143,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>888888888.9</v>
+        <v>892307692.3200001</v>
       </c>
       <c r="K94" t="inlineStr"/>
     </row>
@@ -3176,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>888888888.9</v>
+        <v>892307692.3200001</v>
       </c>
       <c r="K95" t="inlineStr"/>
     </row>
@@ -3284,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1000000000</v>
+        <v>666666666.67</v>
       </c>
       <c r="K99" t="inlineStr"/>
     </row>
@@ -3735,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3749,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>4.21</v>
+        <v>4.13</v>
       </c>
       <c r="K116" t="inlineStr"/>
     </row>
@@ -3768,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3782,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>4.21</v>
+        <v>4.13</v>
       </c>
       <c r="K117" t="inlineStr"/>
     </row>
@@ -3917,11 +3913,11 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>500000000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-08-20 to 2023-09-03</t>
+          <t>2023-09-03 to 2024-09-01</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -3931,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>669811320.77</v>
+        <v>666666666.6900001</v>
       </c>
       <c r="K122" t="inlineStr"/>
     </row>
@@ -4302,7 +4298,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-03-12 to 2023-08-06</t>
+          <t>2023-03-12 to 2023-07-02</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -4335,7 +4331,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023-03-12 to 2023-08-06</t>
+          <t>2023-03-12 to 2023-07-02</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -4710,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>830357149.3</v>
+        <v>815789480.26</v>
       </c>
       <c r="K149" t="inlineStr"/>
     </row>
@@ -4743,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>830357149.3</v>
+        <v>815789480.26</v>
       </c>
       <c r="K150" t="inlineStr"/>
     </row>
@@ -4884,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>95238095.23999999</v>
+        <v>90909090.91</v>
       </c>
       <c r="K155" t="inlineStr"/>
     </row>
@@ -4909,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>95238095.23999999</v>
+        <v>90909090.91</v>
       </c>
       <c r="K156" t="inlineStr"/>
     </row>
@@ -4942,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1598130841.16</v>
+        <v>1609090909.13</v>
       </c>
       <c r="K157" t="inlineStr"/>
     </row>
@@ -4975,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1598130841.16</v>
+        <v>1609090909.13</v>
       </c>
       <c r="K158" t="inlineStr"/>
     </row>
@@ -4994,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2024-05-12 to 2024-08-25</t>
+          <t>2024-05-12 to 2024-05-12</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -5008,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>40000000.02</v>
+        <v>39215686.31</v>
       </c>
       <c r="K159" t="inlineStr"/>
     </row>
@@ -5027,11 +5023,11 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2024-05-12 to 2024-08-25</t>
+          <t>2024-05-12 to 2024-05-12</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -5041,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>40000000.02</v>
+        <v>39215686.31</v>
       </c>
       <c r="K160" t="inlineStr"/>
     </row>
@@ -5126,11 +5122,11 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>2.49</v>
+        <v>3.62</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2023-04-09 to 2024-08-18</t>
+          <t>2023-04-09 to 2024-09-01</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -5140,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>500000002.04</v>
+        <v>514018693.55</v>
       </c>
       <c r="K163" t="inlineStr"/>
     </row>
@@ -5159,11 +5155,11 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>2.49</v>
+        <v>3.62</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2023-04-09 to 2024-08-18</t>
+          <t>2023-04-09 to 2024-09-01</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -5173,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>500000002.04</v>
+        <v>514018693.55</v>
       </c>
       <c r="K164" t="inlineStr"/>
     </row>
@@ -5264,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1357798165.42</v>
+        <v>1351351351.63</v>
       </c>
       <c r="K167" t="inlineStr"/>
     </row>
@@ -5289,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1357798165.42</v>
+        <v>1351351351.63</v>
       </c>
       <c r="K168" t="inlineStr"/>
     </row>
@@ -5314,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1357798165.42</v>
+        <v>1351351351.63</v>
       </c>
       <c r="K169" t="inlineStr"/>
     </row>
@@ -5333,11 +5329,11 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>2.85</v>
+        <v>1285714288.15</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2023-09-24 to 2024-02-04</t>
+          <t>2023-09-24 to 2024-08-11</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -5347,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>3080000001.11</v>
+        <v>3118811882.28</v>
       </c>
       <c r="K170" t="inlineStr"/>
     </row>
@@ -5366,11 +5362,11 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>2.85</v>
+        <v>1285714288.15</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2023-09-24 to 2024-02-04</t>
+          <t>2023-09-24 to 2024-08-11</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -5380,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>3080000001.11</v>
+        <v>3118811882.28</v>
       </c>
       <c r="K171" t="inlineStr"/>
     </row>
@@ -5399,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -5413,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>4.26</v>
+        <v>4.15</v>
       </c>
       <c r="K172" t="inlineStr"/>
     </row>
@@ -5432,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -5446,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>4.26</v>
+        <v>4.15</v>
       </c>
       <c r="K173" t="inlineStr"/>
     </row>
@@ -5465,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>5.11</v>
+        <v>5.27</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -5479,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>18971014512.77</v>
+        <v>18700000019.98</v>
       </c>
       <c r="K174" t="inlineStr"/>
     </row>
@@ -5498,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>5.11</v>
+        <v>5.27</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -5512,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>18971014512.77</v>
+        <v>18700000019.98</v>
       </c>
       <c r="K175" t="inlineStr"/>
     </row>
@@ -5597,11 +5593,11 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2023-12-10 to 2024-08-25</t>
+          <t>2023-12-10 to 2023-12-10</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -5611,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>7563380292.17</v>
+        <v>7256756767.46</v>
       </c>
       <c r="K178" t="inlineStr"/>
     </row>
@@ -5630,11 +5626,11 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2023-12-10 to 2024-08-25</t>
+          <t>2023-12-10 to 2023-12-10</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -5644,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>7563380292.17</v>
+        <v>7256756767.46</v>
       </c>
       <c r="K179" t="inlineStr"/>
     </row>
@@ -5663,11 +5659,11 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>4.83</v>
+        <v>3.85</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2024-01-14 to 2024-12-01</t>
+          <t>2024-01-14 to 2024-08-25</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -5677,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>12.35</v>
+        <v>12.38</v>
       </c>
       <c r="K180" t="inlineStr"/>
     </row>
@@ -5696,11 +5692,11 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>4.83</v>
+        <v>3.85</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2024-01-14 to 2024-12-01</t>
+          <t>2024-01-14 to 2024-08-25</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -5710,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>12.35</v>
+        <v>12.38</v>
       </c>
       <c r="K181" t="inlineStr"/>
     </row>
@@ -5729,11 +5725,11 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>4.83</v>
+        <v>3.85</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2024-01-14 to 2024-12-01</t>
+          <t>2024-01-14 to 2024-08-25</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -5743,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>12.35</v>
+        <v>12.38</v>
       </c>
       <c r="K182" t="inlineStr"/>
     </row>
@@ -5762,11 +5758,11 @@
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>3.19</v>
+        <v>2.49</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2024-03-10 to 2024-12-08</t>
+          <t>2024-12-08 to 2024-12-08</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -5776,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>6.97</v>
+        <v>7.28</v>
       </c>
       <c r="K183" t="inlineStr"/>
     </row>
@@ -5795,11 +5791,11 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>3.19</v>
+        <v>2.49</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2024-03-10 to 2024-12-08</t>
+          <t>2024-12-08 to 2024-12-08</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -5809,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>6.97</v>
+        <v>7.28</v>
       </c>
       <c r="K184" t="inlineStr"/>
     </row>
@@ -5842,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>17766666673.1</v>
+        <v>16656250006.94</v>
       </c>
       <c r="K185" t="inlineStr"/>
     </row>
@@ -5861,11 +5857,11 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>4.01</v>
+        <v>3</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2024-11-17 to 2024-12-29</t>
+          <t>2024-08-25 to 2024-12-29</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -5879,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>1540000006.5</v>
+        <v>1509803928.38</v>
       </c>
       <c r="K186" t="inlineStr"/>
     </row>
@@ -5904,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>14714285721.69</v>
+        <v>11444444450.42</v>
       </c>
       <c r="K187" t="inlineStr"/>
     </row>
@@ -5937,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>4250000000</v>
+        <v>2833333334.42</v>
       </c>
       <c r="K188" t="inlineStr"/>
     </row>
@@ -5962,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>8200000000</v>
+        <v>5857142866.22</v>
       </c>
       <c r="K189" t="inlineStr"/>
     </row>
@@ -5987,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>3000000000</v>
+        <v>2000000001.17</v>
       </c>
       <c r="K190" t="inlineStr"/>
     </row>
@@ -6038,14 +6034,18 @@
           <t>2024-06-16 to 2024-12-29</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>896551724.16</v>
+        <v>915254237.29</v>
       </c>
       <c r="K192" t="inlineStr"/>
     </row>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>549019607.85</v>
+        <v>557692307.7</v>
       </c>
       <c r="K194" t="inlineStr"/>
     </row>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>1647058823.54</v>
+        <v>1657142857.15</v>
       </c>
       <c r="K195" t="inlineStr"/>
     </row>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>7888888894.31</v>
+        <v>7656862750.53</v>
       </c>
       <c r="K206" t="inlineStr"/>
     </row>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2023-01-01</t>
+          <t>2023-01-01 to 2023-03-12</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>56603773.58</v>
+        <v>57692307.69</v>
       </c>
       <c r="K207" t="inlineStr"/>
     </row>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>11.36</v>
+        <v>11.34</v>
       </c>
       <c r="K209" t="inlineStr"/>
     </row>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>2415094339.98</v>
+        <v>2462962963.31</v>
       </c>
       <c r="K211" t="inlineStr"/>
     </row>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>471153846.27</v>
+        <v>481132075.59</v>
       </c>
       <c r="K212" t="inlineStr"/>
     </row>
@@ -6884,11 +6884,11 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>5.17</v>
+        <v>5.32</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>2023-08-06 to 2025-02-09</t>
+          <t>2023-08-06 to 2025-02-23</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>3.03</v>
+        <v>3.17</v>
       </c>
       <c r="K221" t="inlineStr"/>
     </row>
@@ -6917,11 +6917,11 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>3.18</v>
+        <v>2.53</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>2023-04-16 to 2024-08-18</t>
+          <t>2023-04-16 to 2024-06-23</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>5.23</v>
+        <v>5.43</v>
       </c>
       <c r="K222" t="inlineStr"/>
     </row>
@@ -7174,11 +7174,11 @@
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>4.08</v>
+        <v>3.91</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>2023-02-26 to 2025-02-09</t>
+          <t>2023-02-26 to 2024-12-15</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="K231" t="inlineStr"/>
     </row>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>3.32</v>
+        <v>7.7</v>
       </c>
       <c r="K232" t="inlineStr"/>
     </row>
@@ -7331,11 +7331,11 @@
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>0.99</v>
+        <v>1.47</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-03-03</t>
+          <t>2022-12-25 to 2025-02-23</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -7480,11 +7480,11 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>500000000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>2023-02-26 to 2023-02-26</t>
+          <t>2023-02-26 to 2025-02-09</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>577981651.39</v>
+        <v>581818181.83</v>
       </c>
       <c r="K241" t="inlineStr"/>
     </row>
@@ -7513,11 +7513,11 @@
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>5.97</v>
+        <v>5.04</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>2023-08-27 to 2024-06-30</t>
+          <t>2023-08-27 to 2023-12-31</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>4.2</v>
+        <v>4.86</v>
       </c>
       <c r="K242" t="inlineStr"/>
     </row>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>2023-02-12 to 2023-08-20</t>
+          <t>2023-02-12 to 2023-05-28</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>71428571.43000001</v>
+        <v>66666666.67</v>
       </c>
       <c r="K247" t="inlineStr"/>
     </row>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>28.62</v>
+        <v>28.55</v>
       </c>
       <c r="K258" t="inlineStr"/>
     </row>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>2023-02-05 to 2025-02-09</t>
+          <t>2023-02-05 to 2025-02-23</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>481481481.52</v>
+        <v>490909090.95</v>
       </c>
       <c r="K260" t="inlineStr"/>
     </row>
@@ -8052,11 +8052,11 @@
         <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>666666666.67</v>
+        <v>750000000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>2023-05-28 to 2025-01-26</t>
+          <t>2023-05-28 to 2025-02-16</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>585106382.99</v>
+        <v>589473684.22</v>
       </c>
       <c r="K261" t="inlineStr"/>
     </row>
@@ -8110,25 +8110,21 @@
         <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>3.65</v>
+        <v>3.89</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
           <t>2023-01-01 to 2024-12-29</t>
         </is>
       </c>
-      <c r="F263" t="n">
-        <v>0</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0</v>
-      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="n">
         <v>0</v>
       </c>
       <c r="J263" t="n">
-        <v>3.86</v>
+        <v>3.84</v>
       </c>
       <c r="K263" t="inlineStr"/>
     </row>
@@ -8180,11 +8176,11 @@
         <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>4.54</v>
+        <v>7.78</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2023-08-13 to 2025-01-12</t>
+          <t>2024-06-30 to 2025-01-12</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -8194,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>2306666675.43</v>
+        <v>2175000008.32</v>
       </c>
       <c r="K265" t="inlineStr"/>
     </row>
@@ -8209,17 +8205,9 @@
           <t>G32QC A-SA</t>
         </is>
       </c>
-      <c r="C266" t="n">
-        <v>0</v>
-      </c>
-      <c r="D266" t="n">
-        <v>1</v>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>2024-08-25 to 2024-08-25</t>
-        </is>
-      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
@@ -8227,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>330097090.74</v>
+        <v>326923080.26</v>
       </c>
       <c r="K266" t="inlineStr"/>
     </row>
@@ -8242,17 +8230,9 @@
           <t xml:space="preserve">G32QC A-SA                    </t>
         </is>
       </c>
-      <c r="C267" t="n">
-        <v>0</v>
-      </c>
-      <c r="D267" t="n">
-        <v>1</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>2024-08-25 to 2024-08-25</t>
-        </is>
-      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
@@ -8260,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>330097090.74</v>
+        <v>326923080.26</v>
       </c>
       <c r="K267" t="inlineStr"/>
     </row>
@@ -8279,11 +8259,11 @@
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>12.1</v>
+        <v>23.2</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>2024-08-25 to 2024-10-20</t>
+          <t>2024-10-20 to 2024-10-20</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -8293,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>1153846158.75</v>
+        <v>1214953275.85</v>
       </c>
       <c r="K268" t="inlineStr"/>
     </row>
@@ -8544,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>6.9</v>
+        <v>6.91</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -8558,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>4.77</v>
+        <v>4.72</v>
       </c>
       <c r="K277" t="inlineStr"/>
     </row>
@@ -8616,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="n">
-        <v>2457943925.65</v>
+        <v>2449541284.82</v>
       </c>
       <c r="K279" t="inlineStr"/>
     </row>
@@ -8649,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>2457943925.65</v>
+        <v>2449541284.82</v>
       </c>
       <c r="K280" t="inlineStr"/>
     </row>
@@ -8759,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="D284" t="n">
-        <v>4.27</v>
+        <v>4.8</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -8770,14 +8750,14 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="n">
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>4.83</v>
+        <v>4.65</v>
       </c>
       <c r="K284" t="inlineStr"/>
     </row>
@@ -8800,7 +8780,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>2023-04-02 to 2024-02-18</t>
+          <t>2023-03-12 to 2024-02-18</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -8810,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>217391304.38</v>
+        <v>222222222.26</v>
       </c>
       <c r="K285" t="inlineStr"/>
     </row>
@@ -8843,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>78200000006.13</v>
+        <v>76875000006.02</v>
       </c>
       <c r="K286" t="inlineStr"/>
     </row>
@@ -8876,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>78200000006.13</v>
+        <v>76875000006.02</v>
       </c>
       <c r="K287" t="inlineStr"/>
     </row>
@@ -8951,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="n">
-        <v>587155963.3200001</v>
+        <v>594594594.61</v>
       </c>
       <c r="K290" t="inlineStr"/>
     </row>
@@ -8976,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="n">
-        <v>587155963.3200001</v>
+        <v>594594594.61</v>
       </c>
       <c r="K291" t="inlineStr"/>
     </row>
@@ -9009,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="n">
-        <v>1160714285.72</v>
+        <v>1157894736.85</v>
       </c>
       <c r="K292" t="inlineStr"/>
     </row>
@@ -9042,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="n">
-        <v>1160714285.72</v>
+        <v>1157894736.85</v>
       </c>
       <c r="K293" t="inlineStr"/>
     </row>
@@ -9107,17 +9087,9 @@
           <t>AORUS FI32U-SA</t>
         </is>
       </c>
-      <c r="C296" t="n">
-        <v>0</v>
-      </c>
-      <c r="D296" t="n">
-        <v>1</v>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>2024-08-25 to 2024-08-25</t>
-        </is>
-      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
@@ -9125,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>568421055.36</v>
+        <v>562500002.71</v>
       </c>
       <c r="K296" t="inlineStr"/>
     </row>
@@ -9140,17 +9112,9 @@
           <t xml:space="preserve">AORUS FI32U-SA                </t>
         </is>
       </c>
-      <c r="C297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D297" t="n">
-        <v>1</v>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>2024-08-25 to 2024-08-25</t>
-        </is>
-      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr"/>
@@ -9158,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>568421055.36</v>
+        <v>562500002.71</v>
       </c>
       <c r="K297" t="inlineStr"/>
     </row>
@@ -9177,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="D298" t="n">
-        <v>222222222.22</v>
+        <v>250000000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -9191,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>474226804.13</v>
+        <v>469387755.11</v>
       </c>
       <c r="K298" t="inlineStr"/>
     </row>
@@ -9210,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>222222222.22</v>
+        <v>250000000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -9224,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="n">
-        <v>474226804.13</v>
+        <v>469387755.11</v>
       </c>
       <c r="K299" t="inlineStr"/>
     </row>
@@ -9282,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>2509615384.77</v>
+        <v>2556603773.74</v>
       </c>
       <c r="K301" t="inlineStr"/>
     </row>
@@ -9315,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="n">
-        <v>3336538462.94</v>
+        <v>3424528303.26</v>
       </c>
       <c r="K302" t="inlineStr"/>
     </row>
@@ -9384,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>250000000.25</v>
+        <v>333333333.33</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -9398,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>519230769.26</v>
+        <v>523364486.02</v>
       </c>
       <c r="K305" t="inlineStr"/>
     </row>
@@ -9550,11 +9514,11 @@
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>750000000.25</v>
+        <v>1000000000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>2024-03-17 to 2024-08-25</t>
+          <t>2024-03-17 to 2024-08-04</t>
         </is>
       </c>
       <c r="F311" t="inlineStr"/>
@@ -9564,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="n">
-        <v>495412844.04</v>
+        <v>500000000.01</v>
       </c>
       <c r="K311" t="inlineStr"/>
     </row>
@@ -9688,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>4592592592.84</v>
+        <v>4654545454.79</v>
       </c>
       <c r="K315" t="inlineStr"/>
     </row>
@@ -9746,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="n">
-        <v>7209090910.03</v>
+        <v>7187500000.92</v>
       </c>
       <c r="K317" t="inlineStr"/>
     </row>
@@ -9765,11 +9729,11 @@
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>7.13</v>
+        <v>6.11</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>2023-04-30 to 2024-08-25</t>
+          <t>2023-03-12 to 2024-08-25</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
@@ -9779,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>2569767443.78</v>
+        <v>2600000001.94</v>
       </c>
       <c r="K318" t="inlineStr"/>
     </row>
@@ -9798,11 +9762,11 @@
         <v>0</v>
       </c>
       <c r="D319" t="n">
-        <v>7.13</v>
+        <v>6.11</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>2023-04-30 to 2024-08-25</t>
+          <t>2023-03-12 to 2024-08-25</t>
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
@@ -9812,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="n">
-        <v>2569767443.78</v>
+        <v>2600000001.94</v>
       </c>
       <c r="K319" t="inlineStr"/>
     </row>
@@ -9831,11 +9795,11 @@
         <v>0</v>
       </c>
       <c r="D320" t="n">
-        <v>2000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>2023-05-21 to 2025-02-09</t>
+          <t>2023-05-21 to 2025-02-16</t>
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
@@ -9845,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="n">
-        <v>4519607844.65</v>
+        <v>4514563108.3</v>
       </c>
       <c r="K320" t="inlineStr"/>
     </row>
@@ -9864,11 +9828,11 @@
         <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>2000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>2023-05-21 to 2025-02-09</t>
+          <t>2023-05-21 to 2025-02-16</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
@@ -9878,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="n">
-        <v>4519607844.65</v>
+        <v>4514563108.3</v>
       </c>
       <c r="K321" t="inlineStr"/>
     </row>
@@ -9911,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="n">
-        <v>4183486238.55</v>
+        <v>4198198198.21</v>
       </c>
       <c r="K322" t="inlineStr"/>
     </row>
@@ -9944,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="n">
-        <v>4183486238.55</v>
+        <v>4198198198.21</v>
       </c>
       <c r="K323" t="inlineStr"/>
     </row>
@@ -9977,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="n">
-        <v>4183486238.55</v>
+        <v>4198198198.21</v>
       </c>
       <c r="K324" t="inlineStr"/>
     </row>
@@ -10035,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="n">
-        <v>838235294.15</v>
+        <v>842857142.89</v>
       </c>
       <c r="K326" t="inlineStr"/>
     </row>
@@ -10068,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="n">
-        <v>838235294.15</v>
+        <v>842857142.89</v>
       </c>
       <c r="K327" t="inlineStr"/>
     </row>
@@ -10101,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="n">
-        <v>838235294.15</v>
+        <v>842857142.89</v>
       </c>
       <c r="K328" t="inlineStr"/>
     </row>
@@ -10124,7 +10088,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>2023-05-07 to 2023-11-05</t>
+          <t>2023-05-07 to 2024-08-25</t>
         </is>
       </c>
       <c r="F329" t="inlineStr"/>
@@ -10134,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="n">
-        <v>662500000.21</v>
+        <v>670886076.16</v>
       </c>
       <c r="K329" t="inlineStr"/>
     </row>
@@ -10157,7 +10121,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>2023-05-07 to 2023-11-05</t>
+          <t>2023-05-07 to 2024-08-25</t>
         </is>
       </c>
       <c r="F330" t="inlineStr"/>
@@ -10167,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="n">
-        <v>662500000.21</v>
+        <v>670886076.16</v>
       </c>
       <c r="K330" t="inlineStr"/>
     </row>
@@ -10186,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="D331" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -10200,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="n">
-        <v>6.34</v>
+        <v>669642863.3200001</v>
       </c>
       <c r="K331" t="inlineStr"/>
     </row>
@@ -10219,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="D332" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -10233,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="n">
-        <v>6.34</v>
+        <v>669642863.3200001</v>
       </c>
       <c r="K332" t="inlineStr"/>
     </row>
@@ -10266,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="n">
-        <v>5831858418.9</v>
+        <v>7086956533.35</v>
       </c>
       <c r="K333" t="inlineStr"/>
     </row>
@@ -10299,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="n">
-        <v>5831858418.9</v>
+        <v>7086956533.35</v>
       </c>
       <c r="K334" t="inlineStr"/>
     </row>
@@ -10332,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="n">
-        <v>5831858418.9</v>
+        <v>7086956533.35</v>
       </c>
       <c r="K335" t="inlineStr"/>
     </row>
@@ -10365,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="n">
-        <v>509803921.67</v>
+        <v>519230769.33</v>
       </c>
       <c r="K336" t="inlineStr"/>
     </row>
@@ -10398,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="n">
-        <v>509803921.67</v>
+        <v>519230769.33</v>
       </c>
       <c r="K337" t="inlineStr"/>
     </row>
@@ -10539,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="n">
-        <v>679611651.25</v>
+        <v>685714286.47</v>
       </c>
       <c r="K342" t="inlineStr"/>
     </row>
@@ -10564,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="n">
-        <v>679611651.25</v>
+        <v>685714286.47</v>
       </c>
       <c r="K343" t="inlineStr"/>
     </row>
@@ -10708,11 +10672,11 @@
         <v>0</v>
       </c>
       <c r="D349" t="n">
-        <v>5000000000</v>
+        <v>4166666666.83</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>2023-12-31 to 2024-12-22</t>
+          <t>2023-12-31 to 2025-02-16</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -10722,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="n">
-        <v>2336448598.23</v>
+        <v>2407407407.5</v>
       </c>
       <c r="K349" t="inlineStr"/>
     </row>
@@ -10741,11 +10705,11 @@
         <v>0</v>
       </c>
       <c r="D350" t="n">
-        <v>5000000000</v>
+        <v>4166666666.83</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>2023-12-31 to 2024-12-22</t>
+          <t>2023-12-31 to 2025-02-16</t>
         </is>
       </c>
       <c r="F350" t="inlineStr"/>
@@ -10755,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="n">
-        <v>2336448598.23</v>
+        <v>2407407407.5</v>
       </c>
       <c r="K350" t="inlineStr"/>
     </row>
@@ -10774,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="D351" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -10788,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="n">
-        <v>906542064.17</v>
+        <v>898148156.17</v>
       </c>
       <c r="K351" t="inlineStr"/>
     </row>
@@ -10990,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="D359" t="n">
-        <v>600000000</v>
+        <v>750000000</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -11004,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="n">
-        <v>509433962.28</v>
+        <v>513761467.91</v>
       </c>
       <c r="K359" t="inlineStr"/>
     </row>
@@ -11023,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="D360" t="n">
-        <v>600000000</v>
+        <v>750000000</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -11037,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="n">
-        <v>509433962.28</v>
+        <v>513761467.91</v>
       </c>
       <c r="K360" t="inlineStr"/>
     </row>
@@ -11145,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="n">
-        <v>537735849.08</v>
+        <v>546296296.3099999</v>
       </c>
       <c r="K364" t="inlineStr"/>
     </row>
@@ -11236,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="n">
-        <v>157142857.17</v>
+        <v>180555555.58</v>
       </c>
       <c r="K367" t="inlineStr"/>
     </row>
@@ -11269,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="n">
-        <v>157142857.17</v>
+        <v>180555555.58</v>
       </c>
       <c r="K368" t="inlineStr"/>
     </row>
@@ -11302,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="n">
-        <v>2611650485.63</v>
+        <v>2600000000.19</v>
       </c>
       <c r="K369" t="inlineStr"/>
     </row>
@@ -11335,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="n">
-        <v>2611650485.63</v>
+        <v>2600000000.19</v>
       </c>
       <c r="K370" t="inlineStr"/>
     </row>
@@ -11404,11 +11368,11 @@
         <v>0</v>
       </c>
       <c r="D373" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>2023-02-05 to 2024-08-25</t>
+          <t>2023-02-05 to 2023-10-22</t>
         </is>
       </c>
       <c r="F373" t="inlineStr"/>
@@ -11418,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="n">
-        <v>5.92</v>
+        <v>5.74</v>
       </c>
       <c r="K373" t="inlineStr"/>
     </row>
@@ -11517,7 +11481,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="n">
-        <v>919354840.49</v>
+        <v>890625001.87</v>
       </c>
       <c r="K376" t="inlineStr"/>
     </row>
@@ -11550,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="n">
-        <v>919354840.49</v>
+        <v>890625001.87</v>
       </c>
       <c r="K377" t="inlineStr"/>
     </row>
@@ -11631,9 +11595,17 @@
           <t>GB-AMXI9N8A-2051</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr"/>
-      <c r="E380" t="inlineStr"/>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024-08-25 to 2024-08-25</t>
+        </is>
+      </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
       <c r="H380" t="inlineStr"/>
@@ -11641,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="n">
-        <v>495327102.81</v>
+        <v>495327102.8</v>
       </c>
       <c r="K380" t="inlineStr"/>
     </row>
@@ -11656,9 +11628,17 @@
           <t xml:space="preserve">GB-AMXI9N8A-2051              </t>
         </is>
       </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr"/>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024-08-25 to 2024-08-25</t>
+        </is>
+      </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
       <c r="H381" t="inlineStr"/>
@@ -11666,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="n">
-        <v>495327102.81</v>
+        <v>495327102.8</v>
       </c>
       <c r="K381" t="inlineStr"/>
     </row>
@@ -11685,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="D382" t="n">
-        <v>500000000</v>
+        <v>333333333.33</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -11699,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="n">
-        <v>500000000.01</v>
+        <v>504854368.94</v>
       </c>
       <c r="K382" t="inlineStr"/>
     </row>
@@ -11718,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="D383" t="n">
-        <v>500000000</v>
+        <v>333333333.33</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -11732,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="n">
-        <v>500000000.01</v>
+        <v>504854368.94</v>
       </c>
       <c r="K383" t="inlineStr"/>
     </row>
@@ -12179,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="n">
-        <v>1345794396.07</v>
+        <v>1394495416.32</v>
       </c>
       <c r="K398" t="inlineStr"/>
     </row>
@@ -12204,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="n">
-        <v>1345794396.07</v>
+        <v>1394495416.32</v>
       </c>
       <c r="K399" t="inlineStr"/>
     </row>
@@ -12229,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="n">
-        <v>1345794396.07</v>
+        <v>1394495416.32</v>
       </c>
       <c r="K400" t="inlineStr"/>
     </row>
@@ -12298,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="D403" t="n">
-        <v>23000000000.2</v>
+        <v>28750000000</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -12312,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="n">
-        <v>7114285718.26</v>
+        <v>7574074077.95</v>
       </c>
       <c r="K403" t="inlineStr"/>
     </row>
@@ -12389,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="D406" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -12403,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="n">
-        <v>1166666673.42</v>
+        <v>1131313137.92</v>
       </c>
       <c r="K406" t="inlineStr"/>
     </row>
@@ -12422,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="D407" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -12436,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="n">
-        <v>1166666673.42</v>
+        <v>1131313137.92</v>
       </c>
       <c r="K407" t="inlineStr"/>
     </row>
@@ -12494,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="n">
-        <v>12.81</v>
+        <v>12.56</v>
       </c>
       <c r="K409" t="inlineStr"/>
     </row>
@@ -12513,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="D410" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -12527,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="n">
-        <v>16393442.82</v>
+        <v>16129032.46</v>
       </c>
       <c r="K410" t="inlineStr"/>
     </row>
@@ -12546,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="D411" t="n">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -12560,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="n">
-        <v>5.84</v>
+        <v>5.61</v>
       </c>
       <c r="K411" t="inlineStr"/>
     </row>
@@ -12679,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="D416" t="n">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -12693,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="n">
-        <v>2841584165.1</v>
+        <v>2759615391.15</v>
       </c>
       <c r="K416" t="inlineStr"/>
     </row>
@@ -12712,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="D417" t="n">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -12726,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="n">
-        <v>2841584165.1</v>
+        <v>2759615391.15</v>
       </c>
       <c r="K417" t="inlineStr"/>
     </row>
@@ -12745,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="D418" t="n">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -12759,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="J418" t="n">
-        <v>2841584165.1</v>
+        <v>2759615391.15</v>
       </c>
       <c r="K418" t="inlineStr"/>
     </row>
@@ -13006,17 +12986,9 @@
           <t>GV-R64D6-4GL</t>
         </is>
       </c>
-      <c r="C427" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" t="n">
-        <v>0</v>
-      </c>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>2023-01-29 to 2023-01-29</t>
-        </is>
-      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr"/>
@@ -13024,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="J427" t="n">
-        <v>4815789474</v>
+        <v>4575000000.3</v>
       </c>
       <c r="K427" t="inlineStr"/>
     </row>
@@ -13039,17 +13011,9 @@
           <t xml:space="preserve">GV-R64D6-4GL                  </t>
         </is>
       </c>
-      <c r="C428" t="n">
-        <v>0</v>
-      </c>
-      <c r="D428" t="n">
-        <v>0</v>
-      </c>
-      <c r="E428" t="inlineStr">
-        <is>
-          <t>2023-01-29 to 2023-01-29</t>
-        </is>
-      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr"/>
       <c r="H428" t="inlineStr"/>
@@ -13057,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="J428" t="n">
-        <v>4815789474</v>
+        <v>4575000000.3</v>
       </c>
       <c r="K428" t="inlineStr"/>
     </row>
@@ -13250,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="D435" t="n">
-        <v>666666667.11</v>
+        <v>750000000.5</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -13264,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="J435" t="n">
-        <v>1122448979.68</v>
+        <v>1128712871.37</v>
       </c>
       <c r="K435" t="inlineStr"/>
     </row>
@@ -13803,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="J454" t="n">
-        <v>3472222229.57</v>
+        <v>3763157901.7</v>
       </c>
       <c r="K454" t="inlineStr"/>
     </row>
@@ -13836,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="J455" t="n">
-        <v>1719298245.84</v>
+        <v>1694915254.47</v>
       </c>
       <c r="K455" t="inlineStr"/>
     </row>
@@ -13855,11 +13819,11 @@
         <v>0</v>
       </c>
       <c r="D456" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>2024-03-31 to 2024-08-25</t>
+          <t>2024-03-31 to 2024-03-31</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
@@ -13869,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="J456" t="n">
-        <v>3173913049.32</v>
+        <v>3106382984.47</v>
       </c>
       <c r="K456" t="inlineStr"/>
     </row>
@@ -13902,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="J457" t="n">
-        <v>1750000000.53</v>
+        <v>1633333333.86</v>
       </c>
       <c r="K457" t="inlineStr"/>
     </row>
@@ -13985,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="n">
-        <v>660000006.13</v>
+        <v>696078437.39</v>
       </c>
       <c r="K460" t="inlineStr"/>
     </row>
@@ -14018,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="n">
-        <v>660000006.13</v>
+        <v>696078437.39</v>
       </c>
       <c r="K461" t="inlineStr"/>
     </row>
@@ -14051,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="n">
-        <v>660000006.13</v>
+        <v>696078437.39</v>
       </c>
       <c r="K462" t="inlineStr"/>
     </row>
@@ -14084,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="J463" t="n">
-        <v>1111111111.17</v>
+        <v>1127272727.33</v>
       </c>
       <c r="K463" t="inlineStr"/>
     </row>
@@ -14117,7 +14081,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="n">
-        <v>1111111111.17</v>
+        <v>1127272727.33</v>
       </c>
       <c r="K464" t="inlineStr"/>
     </row>
@@ -14136,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="D465" t="n">
-        <v>2.55</v>
+        <v>3.83</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -14150,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="n">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="K465" t="inlineStr"/>
     </row>
@@ -14169,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="D466" t="n">
-        <v>2.55</v>
+        <v>3.83</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -14183,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="n">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="K466" t="inlineStr"/>
     </row>
@@ -14216,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="n">
-        <v>1642857143.04</v>
+        <v>1620689655.34</v>
       </c>
       <c r="K467" t="inlineStr"/>
     </row>
@@ -14307,7 +14271,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="n">
-        <v>1554545463.1</v>
+        <v>1526785722.75</v>
       </c>
       <c r="K470" t="inlineStr"/>
     </row>
@@ -14340,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="n">
-        <v>1554545463.1</v>
+        <v>1526785722.75</v>
       </c>
       <c r="K471" t="inlineStr"/>
     </row>
@@ -14373,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>1554545463.1</v>
+        <v>1526785722.75</v>
       </c>
       <c r="K472" t="inlineStr"/>
     </row>
@@ -14431,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="n">
-        <v>2275229360.62</v>
+        <v>2261261264.05</v>
       </c>
       <c r="K474" t="inlineStr"/>
     </row>
@@ -14464,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="J475" t="n">
-        <v>2275229360.62</v>
+        <v>2261261264.05</v>
       </c>
       <c r="K475" t="inlineStr"/>
     </row>
@@ -14497,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="n">
-        <v>2275229360.62</v>
+        <v>2261261264.05</v>
       </c>
       <c r="K476" t="inlineStr"/>
     </row>
@@ -14530,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="n">
-        <v>2990099013.51</v>
+        <v>2990291265.67</v>
       </c>
       <c r="K477" t="inlineStr"/>
     </row>
@@ -14563,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="J478" t="n">
-        <v>2990099013.51</v>
+        <v>2990291265.67</v>
       </c>
       <c r="K478" t="inlineStr"/>
     </row>
@@ -14582,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="D479" t="n">
-        <v>2.59</v>
+        <v>2.33</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -14596,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="n">
-        <v>764705884.35</v>
+        <v>857142859.11</v>
       </c>
       <c r="K479" t="inlineStr"/>
     </row>
@@ -14615,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="D480" t="n">
-        <v>2.59</v>
+        <v>2.33</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -14629,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="J480" t="n">
-        <v>764705884.35</v>
+        <v>857142859.11</v>
       </c>
       <c r="K480" t="inlineStr"/>
     </row>
@@ -14648,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="D481" t="n">
-        <v>2.59</v>
+        <v>2.33</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -14662,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="J481" t="n">
-        <v>764705884.35</v>
+        <v>857142859.11</v>
       </c>
       <c r="K481" t="inlineStr"/>
     </row>
@@ -14681,11 +14645,11 @@
         <v>0</v>
       </c>
       <c r="D482" t="n">
-        <v>2.47</v>
+        <v>2.71</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>2023-03-19 to 2025-01-19</t>
+          <t>2023-05-07 to 2025-01-19</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
@@ -14695,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="J482" t="n">
-        <v>6.91</v>
+        <v>6.81</v>
       </c>
       <c r="K482" t="inlineStr"/>
     </row>
@@ -14714,11 +14678,11 @@
         <v>0</v>
       </c>
       <c r="D483" t="n">
-        <v>2.47</v>
+        <v>2.71</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>2023-03-19 to 2025-01-19</t>
+          <t>2023-05-07 to 2025-01-19</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
@@ -14728,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="J483" t="n">
-        <v>6.91</v>
+        <v>6.81</v>
       </c>
       <c r="K483" t="inlineStr"/>
     </row>
@@ -14747,11 +14711,11 @@
         <v>0</v>
       </c>
       <c r="D484" t="n">
-        <v>2.47</v>
+        <v>2.71</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>2023-03-19 to 2025-01-19</t>
+          <t>2023-05-07 to 2025-01-19</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
@@ -14761,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="J484" t="n">
-        <v>6.91</v>
+        <v>6.81</v>
       </c>
       <c r="K484" t="inlineStr"/>
     </row>
@@ -14846,25 +14810,21 @@
         <v>0</v>
       </c>
       <c r="D487" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>2023-05-14 to 2024-08-25</t>
-        </is>
-      </c>
-      <c r="F487" t="n">
-        <v>0</v>
-      </c>
-      <c r="G487" t="n">
-        <v>0.16</v>
-      </c>
+          <t>2023-05-14 to 2024-11-24</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="n">
         <v>0</v>
       </c>
       <c r="J487" t="n">
-        <v>14186813190.57</v>
+        <v>13744680854.72</v>
       </c>
       <c r="K487" t="inlineStr"/>
     </row>
@@ -14883,25 +14843,21 @@
         <v>0</v>
       </c>
       <c r="D488" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>2023-05-14 to 2024-08-25</t>
-        </is>
-      </c>
-      <c r="F488" t="n">
-        <v>0</v>
-      </c>
-      <c r="G488" t="n">
-        <v>0.16</v>
-      </c>
+          <t>2023-05-14 to 2024-11-24</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="n">
         <v>0</v>
       </c>
       <c r="J488" t="n">
-        <v>14186813190.57</v>
+        <v>13744680854.72</v>
       </c>
       <c r="K488" t="inlineStr"/>
     </row>
@@ -14984,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="J491" t="n">
-        <v>30801980210.11</v>
+        <v>30203883507.27</v>
       </c>
       <c r="K491" t="inlineStr"/>
     </row>
@@ -15017,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="J492" t="n">
-        <v>30801980210.11</v>
+        <v>30203883507.27</v>
       </c>
       <c r="K492" t="inlineStr"/>
     </row>
@@ -15050,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="J493" t="n">
-        <v>30801980210.11</v>
+        <v>30203883507.27</v>
       </c>
       <c r="K493" t="inlineStr"/>
     </row>
@@ -15083,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>1775700940.32</v>
+        <v>1743119272.69</v>
       </c>
       <c r="K494" t="inlineStr"/>
     </row>
@@ -15116,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="J495" t="n">
-        <v>1775700940.32</v>
+        <v>1743119272.69</v>
       </c>
       <c r="K495" t="inlineStr"/>
     </row>
@@ -15135,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="D496" t="n">
-        <v>3.14</v>
+        <v>3.44</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -15149,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="n">
-        <v>9.050000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K496" t="inlineStr"/>
     </row>
@@ -15168,7 +15124,7 @@
         <v>0</v>
       </c>
       <c r="D497" t="n">
-        <v>3.14</v>
+        <v>3.44</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -15182,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="n">
-        <v>9.050000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K497" t="inlineStr"/>
     </row>
@@ -15201,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="D498" t="n">
-        <v>3.14</v>
+        <v>3.44</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -15215,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="n">
-        <v>9.050000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K498" t="inlineStr"/>
     </row>
@@ -15284,25 +15240,21 @@
         <v>0</v>
       </c>
       <c r="D501" t="n">
-        <v>1.75</v>
+        <v>3.11</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>2023-02-19 to 2024-07-21</t>
-        </is>
-      </c>
-      <c r="F501" t="n">
-        <v>0</v>
-      </c>
-      <c r="G501" t="n">
-        <v>7.2</v>
-      </c>
+          <t>2023-02-19 to 2024-12-08</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="n">
         <v>0</v>
       </c>
       <c r="J501" t="n">
-        <v>209523816.95</v>
+        <v>355140194.35</v>
       </c>
       <c r="K501" t="inlineStr"/>
     </row>
@@ -15321,25 +15273,21 @@
         <v>0</v>
       </c>
       <c r="D502" t="n">
-        <v>1.75</v>
+        <v>3.11</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>2023-02-19 to 2024-07-21</t>
-        </is>
-      </c>
-      <c r="F502" t="n">
-        <v>0</v>
-      </c>
-      <c r="G502" t="n">
-        <v>7.2</v>
-      </c>
+          <t>2023-02-19 to 2024-12-08</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="n">
         <v>0</v>
       </c>
       <c r="J502" t="n">
-        <v>209523816.95</v>
+        <v>355140194.35</v>
       </c>
       <c r="K502" t="inlineStr"/>
     </row>
@@ -15358,21 +15306,25 @@
         <v>0</v>
       </c>
       <c r="D503" t="n">
-        <v>6.82</v>
+        <v>6.5</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>2023-03-12 to 2025-02-09</t>
-        </is>
-      </c>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
+          <t>2023-03-12 to 2024-12-22</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>0</v>
+      </c>
+      <c r="G503" t="n">
+        <v>1</v>
+      </c>
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="n">
         <v>0</v>
       </c>
       <c r="J503" t="n">
-        <v>8.56</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K503" t="inlineStr"/>
     </row>
@@ -15391,21 +15343,25 @@
         <v>0</v>
       </c>
       <c r="D504" t="n">
-        <v>6.82</v>
+        <v>6.5</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>2023-03-12 to 2025-02-09</t>
-        </is>
-      </c>
-      <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
+          <t>2023-03-12 to 2024-12-22</t>
+        </is>
+      </c>
+      <c r="F504" t="n">
+        <v>0</v>
+      </c>
+      <c r="G504" t="n">
+        <v>1</v>
+      </c>
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="n">
         <v>0</v>
       </c>
       <c r="J504" t="n">
-        <v>8.56</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K504" t="inlineStr"/>
     </row>
@@ -15424,7 +15380,7 @@
         <v>0</v>
       </c>
       <c r="D505" t="n">
-        <v>23.85</v>
+        <v>28.62</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -15438,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="J505" t="n">
-        <v>3027272756.02</v>
+        <v>2991150470.51</v>
       </c>
       <c r="K505" t="inlineStr"/>
     </row>
@@ -15457,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="D506" t="n">
-        <v>23.85</v>
+        <v>28.62</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -15471,7 +15427,7 @@
         <v>0</v>
       </c>
       <c r="J506" t="n">
-        <v>3027272756.02</v>
+        <v>2991150470.51</v>
       </c>
       <c r="K506" t="inlineStr"/>
     </row>
@@ -15560,7 +15516,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>2023-02-12 to 2023-12-17</t>
+          <t>2023-02-12 to 2023-11-26</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
@@ -15570,7 +15526,7 @@
         <v>0</v>
       </c>
       <c r="J509" t="n">
-        <v>20618561.39</v>
+        <v>20408167.91</v>
       </c>
       <c r="K509" t="inlineStr"/>
     </row>
@@ -15593,7 +15549,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>2023-02-12 to 2023-12-17</t>
+          <t>2023-02-12 to 2023-11-26</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
@@ -15603,7 +15559,7 @@
         <v>0</v>
       </c>
       <c r="J510" t="n">
-        <v>20618561.39</v>
+        <v>20408167.91</v>
       </c>
       <c r="K510" t="inlineStr"/>
     </row>
@@ -15626,7 +15582,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>2023-02-12 to 2023-12-17</t>
+          <t>2023-02-12 to 2023-11-26</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
@@ -15636,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="J511" t="n">
-        <v>20618561.39</v>
+        <v>20408167.91</v>
       </c>
       <c r="K511" t="inlineStr"/>
     </row>
@@ -15669,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="J512" t="n">
-        <v>4.55</v>
+        <v>4.73</v>
       </c>
       <c r="K512" t="inlineStr"/>
     </row>
@@ -15702,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="J513" t="n">
-        <v>4.55</v>
+        <v>4.73</v>
       </c>
       <c r="K513" t="inlineStr"/>
     </row>
@@ -15801,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="J516" t="n">
-        <v>20495145638.11</v>
+        <v>21057142864.05</v>
       </c>
       <c r="K516" t="inlineStr"/>
     </row>
@@ -15834,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="J517" t="n">
-        <v>20495145638.11</v>
+        <v>21057142864.05</v>
       </c>
       <c r="K517" t="inlineStr"/>
     </row>
@@ -15867,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="J518" t="n">
-        <v>20495145638.11</v>
+        <v>21057142864.05</v>
       </c>
       <c r="K518" t="inlineStr"/>
     </row>
@@ -15886,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="D519" t="n">
-        <v>7800000000</v>
+        <v>6500000000</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -15900,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="J519" t="n">
-        <v>11495049510.79</v>
+        <v>11656862750.88</v>
       </c>
       <c r="K519" t="inlineStr"/>
     </row>
@@ -16621,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J544" t="n">
-        <v>163461542.49</v>
+        <v>235849060.56</v>
       </c>
       <c r="K544" t="inlineStr"/>
     </row>
@@ -16654,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="J545" t="n">
-        <v>163461542.49</v>
+        <v>235849060.56</v>
       </c>
       <c r="K545" t="inlineStr"/>
     </row>
@@ -16687,7 +16643,7 @@
         <v>0</v>
       </c>
       <c r="J546" t="n">
-        <v>1598130841.13</v>
+        <v>1623853211.02</v>
       </c>
       <c r="K546" t="inlineStr"/>
     </row>
@@ -16720,7 +16676,7 @@
         <v>0</v>
       </c>
       <c r="J547" t="n">
-        <v>1598130841.13</v>
+        <v>1623853211.02</v>
       </c>
       <c r="K547" t="inlineStr"/>
     </row>
@@ -16814,11 +16770,11 @@
         <v>0</v>
       </c>
       <c r="D551" t="n">
-        <v>4307692311.24</v>
+        <v>3.19</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>2023-05-28 to 2024-09-22</t>
+          <t>2023-05-28 to 2024-07-14</t>
         </is>
       </c>
       <c r="F551" t="inlineStr"/>
@@ -16828,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="J551" t="n">
-        <v>12591836740.2</v>
+        <v>13611650490.81</v>
       </c>
       <c r="K551" t="inlineStr"/>
     </row>
@@ -16847,11 +16803,11 @@
         <v>0</v>
       </c>
       <c r="D552" t="n">
-        <v>4307692311.24</v>
+        <v>3.19</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>2023-05-28 to 2024-09-22</t>
+          <t>2023-05-28 to 2024-07-14</t>
         </is>
       </c>
       <c r="F552" t="inlineStr"/>
@@ -16861,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="J552" t="n">
-        <v>12591836740.2</v>
+        <v>13611650490.81</v>
       </c>
       <c r="K552" t="inlineStr"/>
     </row>
@@ -17018,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="J557" t="n">
-        <v>1165137617.22</v>
+        <v>1252252254.77</v>
       </c>
       <c r="K557" t="inlineStr"/>
     </row>
@@ -17043,7 +16999,7 @@
         <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>1165137617.22</v>
+        <v>1252252254.77</v>
       </c>
       <c r="K558" t="inlineStr"/>
     </row>
@@ -17175,7 +17131,7 @@
         <v>0</v>
       </c>
       <c r="J562" t="n">
-        <v>5.6</v>
+        <v>5.74</v>
       </c>
       <c r="K562" t="inlineStr"/>
     </row>
@@ -17208,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="J563" t="n">
-        <v>5.6</v>
+        <v>5.74</v>
       </c>
       <c r="K563" t="inlineStr"/>
     </row>
@@ -17227,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="D564" t="n">
-        <v>4.1</v>
+        <v>3.76</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -17241,7 +17197,7 @@
         <v>0</v>
       </c>
       <c r="J564" t="n">
-        <v>5.13</v>
+        <v>5.12</v>
       </c>
       <c r="K564" t="inlineStr"/>
     </row>
@@ -17260,7 +17216,7 @@
         <v>0</v>
       </c>
       <c r="D565" t="n">
-        <v>4.1</v>
+        <v>3.76</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -17274,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="J565" t="n">
-        <v>5.13</v>
+        <v>5.12</v>
       </c>
       <c r="K565" t="inlineStr"/>
     </row>
@@ -17399,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="J570" t="n">
-        <v>4.24</v>
+        <v>18348628.01</v>
       </c>
       <c r="K570" t="inlineStr"/>
     </row>
@@ -17424,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="J571" t="n">
-        <v>4.24</v>
+        <v>18348628.01</v>
       </c>
       <c r="K571" t="inlineStr"/>
     </row>
@@ -17443,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="D572" t="n">
-        <v>3.06</v>
+        <v>2.96</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -17457,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="n">
-        <v>4.16</v>
+        <v>4.22</v>
       </c>
       <c r="K572" t="inlineStr"/>
     </row>
@@ -17476,7 +17432,7 @@
         <v>0</v>
       </c>
       <c r="D573" t="n">
-        <v>3.06</v>
+        <v>2.96</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -17490,7 +17446,7 @@
         <v>0</v>
       </c>
       <c r="J573" t="n">
-        <v>4.16</v>
+        <v>4.22</v>
       </c>
       <c r="K573" t="inlineStr"/>
     </row>
@@ -17509,11 +17465,11 @@
         <v>0</v>
       </c>
       <c r="D574" t="n">
-        <v>6.75</v>
+        <v>4.83</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>2023-09-10 to 2024-08-11</t>
+          <t>2023-09-10 to 2024-08-25</t>
         </is>
       </c>
       <c r="F574" t="inlineStr"/>
@@ -17523,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="J574" t="n">
-        <v>2413461542.52</v>
+        <v>2419047623.08</v>
       </c>
       <c r="K574" t="inlineStr"/>
     </row>
@@ -17542,11 +17498,11 @@
         <v>0</v>
       </c>
       <c r="D575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>2023-12-10 to 2024-08-18</t>
+          <t>2023-12-10 to 2023-12-17</t>
         </is>
       </c>
       <c r="F575" t="inlineStr"/>
@@ -17556,7 +17512,7 @@
         <v>0</v>
       </c>
       <c r="J575" t="n">
-        <v>2131313134.66</v>
+        <v>2421568630.73</v>
       </c>
       <c r="K575" t="inlineStr"/>
     </row>
@@ -17622,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="J577" t="n">
-        <v>7.34</v>
+        <v>7.93</v>
       </c>
       <c r="K577" t="inlineStr"/>
     </row>
@@ -17655,7 +17611,7 @@
         <v>0</v>
       </c>
       <c r="J578" t="n">
-        <v>7.34</v>
+        <v>7.93</v>
       </c>
       <c r="K578" t="inlineStr"/>
     </row>
@@ -17688,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="J579" t="n">
-        <v>4880000017.53</v>
+        <v>4784313743.58</v>
       </c>
       <c r="K579" t="inlineStr"/>
     </row>
@@ -17707,11 +17663,11 @@
         <v>0</v>
       </c>
       <c r="D580" t="n">
-        <v>68800000000.88</v>
+        <v>86000000000.86</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>2023-07-09 to 2024-08-25</t>
+          <t>2023-07-09 to 2024-01-21</t>
         </is>
       </c>
       <c r="F580" t="inlineStr"/>
@@ -17721,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="J580" t="n">
-        <v>17564705924.94</v>
+        <v>16965909132.57</v>
       </c>
       <c r="K580" t="inlineStr"/>
     </row>
@@ -17740,11 +17696,11 @@
         <v>0</v>
       </c>
       <c r="D581" t="n">
-        <v>68800000000.88</v>
+        <v>86000000000.86</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>2023-07-09 to 2024-08-25</t>
+          <t>2023-07-09 to 2024-01-21</t>
         </is>
       </c>
       <c r="F581" t="inlineStr"/>
@@ -17754,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="J581" t="n">
-        <v>17564705924.94</v>
+        <v>16965909132.57</v>
       </c>
       <c r="K581" t="inlineStr"/>
     </row>
@@ -17787,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="J582" t="n">
-        <v>55555559.02</v>
+        <v>63636367.05</v>
       </c>
       <c r="K582" t="inlineStr"/>
     </row>
@@ -17820,7 +17776,7 @@
         <v>0</v>
       </c>
       <c r="J583" t="n">
-        <v>55555559.02</v>
+        <v>63636367.05</v>
       </c>
       <c r="K583" t="inlineStr"/>
     </row>
@@ -17969,7 +17925,7 @@
         <v>0</v>
       </c>
       <c r="J588" t="n">
-        <v>5.49</v>
+        <v>5.58</v>
       </c>
       <c r="K588" t="inlineStr"/>
     </row>
@@ -18002,7 +17958,7 @@
         <v>0</v>
       </c>
       <c r="J589" t="n">
-        <v>5.49</v>
+        <v>5.58</v>
       </c>
       <c r="K589" t="inlineStr"/>
     </row>
@@ -18077,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="J592" t="n">
-        <v>2054054054.06</v>
+        <v>2088495575.23</v>
       </c>
       <c r="K592" t="inlineStr"/>
     </row>
@@ -18102,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="J593" t="n">
-        <v>2054054054.06</v>
+        <v>2088495575.23</v>
       </c>
       <c r="K593" t="inlineStr"/>
     </row>
@@ -18201,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="J596" t="n">
-        <v>5.08</v>
+        <v>5.34</v>
       </c>
       <c r="K596" t="inlineStr"/>
     </row>
@@ -18234,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="J597" t="n">
-        <v>5.08</v>
+        <v>5.34</v>
       </c>
       <c r="K597" t="inlineStr"/>
     </row>
@@ -18300,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="J599" t="n">
-        <v>4022988513.53</v>
+        <v>4269662928.96</v>
       </c>
       <c r="K599" t="inlineStr"/>
     </row>
@@ -18333,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="J600" t="n">
-        <v>2223300972.46</v>
+        <v>2228571430.17</v>
       </c>
       <c r="K600" t="inlineStr"/>
     </row>
@@ -18366,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="J601" t="n">
-        <v>14043478289.88</v>
+        <v>16361702156.06</v>
       </c>
       <c r="K601" t="inlineStr"/>
     </row>
@@ -18399,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="J602" t="n">
-        <v>4019230771.7</v>
+        <v>4367924530.72</v>
       </c>
       <c r="K602" t="inlineStr"/>
     </row>
@@ -18418,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -18432,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="J603" t="n">
-        <v>324324325.56</v>
+        <v>320000001.22</v>
       </c>
       <c r="K603" t="inlineStr"/>
     </row>
@@ -18451,11 +18407,11 @@
         <v>0</v>
       </c>
       <c r="D604" t="n">
-        <v>4500000000</v>
+        <v>0</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-08-18</t>
+          <t>2023-01-01 to 2023-11-19</t>
         </is>
       </c>
       <c r="F604" t="inlineStr"/>
@@ -18465,7 +18421,7 @@
         <v>0</v>
       </c>
       <c r="J604" t="n">
-        <v>2168316835.7</v>
+        <v>2682692311.59</v>
       </c>
       <c r="K604" t="inlineStr"/>
     </row>
@@ -18484,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="D605" t="n">
-        <v>5.31</v>
+        <v>5.07</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -18498,7 +18454,7 @@
         <v>0</v>
       </c>
       <c r="J605" t="n">
-        <v>2051948056.44</v>
+        <v>2025641030.16</v>
       </c>
       <c r="K605" t="inlineStr"/>
     </row>
@@ -18531,7 +18487,7 @@
         <v>0</v>
       </c>
       <c r="J606" t="n">
-        <v>764044946.28</v>
+        <v>769230771.64</v>
       </c>
       <c r="K606" t="inlineStr"/>
     </row>
@@ -18575,11 +18531,11 @@
         <v>0</v>
       </c>
       <c r="D608" t="n">
-        <v>2.31</v>
+        <v>3.22</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>2023-07-30 to 2024-08-25</t>
+          <t>2023-07-30 to 2024-03-31</t>
         </is>
       </c>
       <c r="F608" t="inlineStr"/>
@@ -18589,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="J608" t="n">
-        <v>2131313133.75</v>
+        <v>2048543691.95</v>
       </c>
       <c r="K608" t="inlineStr"/>
     </row>
@@ -18608,11 +18564,11 @@
         <v>0</v>
       </c>
       <c r="D609" t="n">
-        <v>2.31</v>
+        <v>3.22</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>2023-07-30 to 2024-08-25</t>
+          <t>2023-07-30 to 2024-03-31</t>
         </is>
       </c>
       <c r="F609" t="inlineStr"/>
@@ -18622,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="J609" t="n">
-        <v>2131313133.75</v>
+        <v>2048543691.95</v>
       </c>
       <c r="K609" t="inlineStr"/>
     </row>
@@ -18691,7 +18647,7 @@
         <v>0</v>
       </c>
       <c r="D612" t="n">
-        <v>1.2</v>
+        <v>0.22</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -18705,7 +18661,7 @@
         <v>0</v>
       </c>
       <c r="J612" t="n">
-        <v>3855555558.41</v>
+        <v>3771739133.27</v>
       </c>
       <c r="K612" t="inlineStr"/>
     </row>
@@ -18724,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="D613" t="n">
-        <v>1.2</v>
+        <v>0.22</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -18738,7 +18694,7 @@
         <v>0</v>
       </c>
       <c r="J613" t="n">
-        <v>3855555558.41</v>
+        <v>3771739133.27</v>
       </c>
       <c r="K613" t="inlineStr"/>
     </row>
@@ -18757,11 +18713,11 @@
         <v>0</v>
       </c>
       <c r="D614" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>2023-08-13 to 2024-08-25</t>
+          <t>2023-08-13 to 2023-11-26</t>
         </is>
       </c>
       <c r="F614" t="inlineStr"/>
@@ -18771,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="J614" t="n">
-        <v>1191919195.58</v>
+        <v>1156862748.77</v>
       </c>
       <c r="K614" t="inlineStr"/>
     </row>
@@ -18804,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="J615" t="n">
-        <v>1779069768.87</v>
+        <v>1806818183.21</v>
       </c>
       <c r="K615" t="inlineStr"/>
     </row>
@@ -18856,7 +18812,7 @@
         <v>0</v>
       </c>
       <c r="D617" t="n">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -18870,7 +18826,7 @@
         <v>0</v>
       </c>
       <c r="J617" t="n">
-        <v>11685393267.79</v>
+        <v>11304347836.32</v>
       </c>
       <c r="K617" t="inlineStr"/>
     </row>
@@ -18889,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="D618" t="n">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -18903,7 +18859,7 @@
         <v>0</v>
       </c>
       <c r="J618" t="n">
-        <v>11685393267.79</v>
+        <v>11304347836.32</v>
       </c>
       <c r="K618" t="inlineStr"/>
     </row>
@@ -18986,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="J621" t="n">
-        <v>371134025.39</v>
+        <v>505050509.73</v>
       </c>
       <c r="K621" t="inlineStr"/>
     </row>
@@ -19019,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="J622" t="n">
-        <v>371134025.39</v>
+        <v>505050509.73</v>
       </c>
       <c r="K622" t="inlineStr"/>
     </row>
@@ -19052,7 +19008,7 @@
         <v>0</v>
       </c>
       <c r="J623" t="n">
-        <v>6.34</v>
+        <v>6.37</v>
       </c>
       <c r="K623" t="inlineStr"/>
     </row>
@@ -19085,7 +19041,7 @@
         <v>0</v>
       </c>
       <c r="J624" t="n">
-        <v>6.34</v>
+        <v>6.37</v>
       </c>
       <c r="K624" t="inlineStr"/>
     </row>
@@ -19104,7 +19060,7 @@
         <v>0</v>
       </c>
       <c r="D625" t="n">
-        <v>18125000006.57</v>
+        <v>20714285721.65</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -19118,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="J625" t="n">
-        <v>6390804626</v>
+        <v>6177777805.36</v>
       </c>
       <c r="K625" t="inlineStr"/>
     </row>
@@ -19137,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="D626" t="n">
-        <v>18125000006.57</v>
+        <v>20714285721.65</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -19151,7 +19107,7 @@
         <v>0</v>
       </c>
       <c r="J626" t="n">
-        <v>6390804626</v>
+        <v>6177777805.36</v>
       </c>
       <c r="K626" t="inlineStr"/>
     </row>
@@ -19170,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="D627" t="n">
-        <v>18125000006.57</v>
+        <v>20714285721.65</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -19184,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="J627" t="n">
-        <v>6390804626</v>
+        <v>6177777805.36</v>
       </c>
       <c r="K627" t="inlineStr"/>
     </row>
@@ -19217,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="J628" t="n">
-        <v>2444444445.65</v>
+        <v>2514851486.33</v>
       </c>
       <c r="K628" t="inlineStr"/>
     </row>
@@ -19250,7 +19206,7 @@
         <v>0</v>
       </c>
       <c r="J629" t="n">
-        <v>2444444445.65</v>
+        <v>2514851486.33</v>
       </c>
       <c r="K629" t="inlineStr"/>
     </row>
@@ -19269,25 +19225,21 @@
         <v>0</v>
       </c>
       <c r="D630" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
           <t>2023-02-12 to 2024-08-18</t>
         </is>
       </c>
-      <c r="F630" t="n">
-        <v>0</v>
-      </c>
-      <c r="G630" t="n">
-        <v>1.96</v>
-      </c>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr"/>
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="n">
         <v>0</v>
       </c>
       <c r="J630" t="n">
-        <v>13541176489.99</v>
+        <v>12932584288.27</v>
       </c>
       <c r="K630" t="inlineStr"/>
     </row>
@@ -19306,25 +19258,21 @@
         <v>0</v>
       </c>
       <c r="D631" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
           <t>2023-02-12 to 2024-08-18</t>
         </is>
       </c>
-      <c r="F631" t="n">
-        <v>0</v>
-      </c>
-      <c r="G631" t="n">
-        <v>1.96</v>
-      </c>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="n">
         <v>0</v>
       </c>
       <c r="J631" t="n">
-        <v>13541176489.99</v>
+        <v>12932584288.27</v>
       </c>
       <c r="K631" t="inlineStr"/>
     </row>
@@ -19357,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="J632" t="n">
-        <v>7721518988.73</v>
+        <v>8049382717.4</v>
       </c>
       <c r="K632" t="inlineStr"/>
     </row>
@@ -19390,7 +19338,7 @@
         <v>0</v>
       </c>
       <c r="J633" t="n">
-        <v>7721518988.73</v>
+        <v>8049382717.4</v>
       </c>
       <c r="K633" t="inlineStr"/>
     </row>
@@ -19423,7 +19371,7 @@
         <v>0</v>
       </c>
       <c r="J634" t="n">
-        <v>5461538462.73</v>
+        <v>5602150538.8</v>
       </c>
       <c r="K634" t="inlineStr"/>
     </row>
@@ -19456,7 +19404,7 @@
         <v>0</v>
       </c>
       <c r="J635" t="n">
-        <v>5461538462.73</v>
+        <v>5602150538.8</v>
       </c>
       <c r="K635" t="inlineStr"/>
     </row>
@@ -19475,7 +19423,7 @@
         <v>0</v>
       </c>
       <c r="D636" t="n">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -19489,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="J636" t="n">
-        <v>1527472530.04</v>
+        <v>1536842107.85</v>
       </c>
       <c r="K636" t="inlineStr"/>
     </row>
@@ -19508,7 +19456,7 @@
         <v>0</v>
       </c>
       <c r="D637" t="n">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -19522,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="J637" t="n">
-        <v>1527472530.04</v>
+        <v>1536842107.85</v>
       </c>
       <c r="K637" t="inlineStr"/>
     </row>
@@ -19555,7 +19503,7 @@
         <v>0</v>
       </c>
       <c r="J638" t="n">
-        <v>5.96</v>
+        <v>6.05</v>
       </c>
       <c r="K638" t="inlineStr"/>
     </row>
@@ -19588,7 +19536,7 @@
         <v>0</v>
       </c>
       <c r="J639" t="n">
-        <v>5.96</v>
+        <v>6.05</v>
       </c>
       <c r="K639" t="inlineStr"/>
     </row>
@@ -19607,11 +19555,11 @@
         <v>0</v>
       </c>
       <c r="D640" t="n">
-        <v>1.48</v>
+        <v>0.77</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>2023-07-09 to 2024-07-14</t>
+          <t>2023-11-05 to 2024-07-14</t>
         </is>
       </c>
       <c r="F640" t="inlineStr"/>
@@ -19621,7 +19569,7 @@
         <v>0</v>
       </c>
       <c r="J640" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="K640" t="inlineStr"/>
     </row>
@@ -19640,11 +19588,11 @@
         <v>0</v>
       </c>
       <c r="D641" t="n">
-        <v>1.48</v>
+        <v>0.77</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>2023-07-09 to 2024-07-14</t>
+          <t>2023-11-05 to 2024-07-14</t>
         </is>
       </c>
       <c r="F641" t="inlineStr"/>
@@ -19654,7 +19602,7 @@
         <v>0</v>
       </c>
       <c r="J641" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="K641" t="inlineStr"/>
     </row>
@@ -19673,11 +19621,11 @@
         <v>0</v>
       </c>
       <c r="D642" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>2023-02-12 to 2024-08-25</t>
+          <t>2023-02-12 to 2023-02-12</t>
         </is>
       </c>
       <c r="F642" t="inlineStr"/>
@@ -19687,7 +19635,7 @@
         <v>0</v>
       </c>
       <c r="J642" t="n">
-        <v>4342857152.58</v>
+        <v>4222222231.86</v>
       </c>
       <c r="K642" t="inlineStr"/>
     </row>
@@ -19706,11 +19654,11 @@
         <v>0</v>
       </c>
       <c r="D643" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>2023-02-12 to 2024-08-25</t>
+          <t>2023-02-12 to 2023-02-12</t>
         </is>
       </c>
       <c r="F643" t="inlineStr"/>
@@ -19720,7 +19668,7 @@
         <v>0</v>
       </c>
       <c r="J643" t="n">
-        <v>4342857152.58</v>
+        <v>4222222231.86</v>
       </c>
       <c r="K643" t="inlineStr"/>
     </row>
@@ -19753,7 +19701,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="n">
-        <v>4947368434.14</v>
+        <v>5494845373.85</v>
       </c>
       <c r="K644" t="inlineStr"/>
     </row>
@@ -19819,7 +19767,7 @@
         <v>0</v>
       </c>
       <c r="J646" t="n">
-        <v>5402061862.35</v>
+        <v>5585858592.7</v>
       </c>
       <c r="K646" t="inlineStr"/>
     </row>
@@ -19852,7 +19800,7 @@
         <v>0</v>
       </c>
       <c r="J647" t="n">
-        <v>5402061862.35</v>
+        <v>5585858592.7</v>
       </c>
       <c r="K647" t="inlineStr"/>
     </row>
@@ -19885,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="J648" t="n">
-        <v>4510416667.14</v>
+        <v>4602040816.79</v>
       </c>
       <c r="K648" t="inlineStr"/>
     </row>
@@ -19918,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="J649" t="n">
-        <v>4510416667.14</v>
+        <v>4602040816.79</v>
       </c>
       <c r="K649" t="inlineStr"/>
     </row>
@@ -19937,11 +19885,11 @@
         <v>0</v>
       </c>
       <c r="D650" t="n">
-        <v>0</v>
+        <v>3333333333.5</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>2023-10-29 to 2023-12-17</t>
+          <t>2023-10-29 to 2025-02-16</t>
         </is>
       </c>
       <c r="F650" t="inlineStr"/>
@@ -19951,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="J650" t="n">
-        <v>7873417724.35</v>
+        <v>8126582281.3</v>
       </c>
       <c r="K650" t="inlineStr"/>
     </row>
@@ -19970,11 +19918,11 @@
         <v>0</v>
       </c>
       <c r="D651" t="n">
-        <v>0</v>
+        <v>3333333333.5</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>2023-10-29 to 2023-12-17</t>
+          <t>2023-10-29 to 2025-02-16</t>
         </is>
       </c>
       <c r="F651" t="inlineStr"/>
@@ -19984,7 +19932,7 @@
         <v>0</v>
       </c>
       <c r="J651" t="n">
-        <v>7873417724.35</v>
+        <v>8126582281.3</v>
       </c>
       <c r="K651" t="inlineStr"/>
     </row>
@@ -20067,7 +20015,7 @@
         <v>0</v>
       </c>
       <c r="J654" t="n">
-        <v>4200000003.47</v>
+        <v>4103448279.39</v>
       </c>
       <c r="K654" t="inlineStr"/>
     </row>
@@ -20100,7 +20048,7 @@
         <v>0</v>
       </c>
       <c r="J655" t="n">
-        <v>4200000003.47</v>
+        <v>4103448279.39</v>
       </c>
       <c r="K655" t="inlineStr"/>
     </row>
@@ -20133,7 +20081,7 @@
         <v>0</v>
       </c>
       <c r="J656" t="n">
-        <v>4200000003.47</v>
+        <v>4103448279.39</v>
       </c>
       <c r="K656" t="inlineStr"/>
     </row>
@@ -20166,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="J657" t="n">
-        <v>4207792212.64</v>
+        <v>4101265827.84</v>
       </c>
       <c r="K657" t="inlineStr"/>
     </row>
@@ -20199,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="J658" t="n">
-        <v>4207792212.64</v>
+        <v>4101265827.84</v>
       </c>
       <c r="K658" t="inlineStr"/>
     </row>
@@ -20218,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="D659" t="n">
-        <v>285714285.92</v>
+        <v>333333333.57</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -20232,7 +20180,7 @@
         <v>0</v>
       </c>
       <c r="J659" t="n">
-        <v>4820224725.57</v>
+        <v>4663043484.83</v>
       </c>
       <c r="K659" t="inlineStr"/>
     </row>
@@ -20251,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="D660" t="n">
-        <v>285714285.92</v>
+        <v>333333333.57</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -20265,7 +20213,7 @@
         <v>0</v>
       </c>
       <c r="J660" t="n">
-        <v>4820224725.57</v>
+        <v>4663043484.83</v>
       </c>
       <c r="K660" t="inlineStr"/>
     </row>
@@ -20298,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="J661" t="n">
-        <v>6.17</v>
+        <v>6.71</v>
       </c>
       <c r="K661" t="inlineStr"/>
     </row>
@@ -20331,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="J662" t="n">
-        <v>6.17</v>
+        <v>6.71</v>
       </c>
       <c r="K662" t="inlineStr"/>
     </row>
@@ -20364,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="J663" t="n">
-        <v>4063829791.49</v>
+        <v>4021052635.79</v>
       </c>
       <c r="K663" t="inlineStr"/>
     </row>
@@ -20397,7 +20345,7 @@
         <v>0</v>
       </c>
       <c r="J664" t="n">
-        <v>4063829791.49</v>
+        <v>4021052635.79</v>
       </c>
       <c r="K664" t="inlineStr"/>
     </row>
@@ -20416,11 +20364,11 @@
         <v>0</v>
       </c>
       <c r="D665" t="n">
-        <v>1.97</v>
+        <v>34.03</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>2024-02-11 to 2025-01-12</t>
+          <t>2024-02-11 to 2025-01-26</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
@@ -20430,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="J665" t="n">
-        <v>2344444450.58</v>
+        <v>2344444449.18</v>
       </c>
       <c r="K665" t="inlineStr"/>
     </row>
@@ -20449,11 +20397,11 @@
         <v>0</v>
       </c>
       <c r="D666" t="n">
-        <v>1.97</v>
+        <v>34.03</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>2024-02-11 to 2025-01-12</t>
+          <t>2024-02-11 to 2025-01-26</t>
         </is>
       </c>
       <c r="F666" t="inlineStr"/>
@@ -20463,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="J666" t="n">
-        <v>2344444450.58</v>
+        <v>2344444449.18</v>
       </c>
       <c r="K666" t="inlineStr"/>
     </row>
@@ -20496,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="J667" t="n">
-        <v>1800000018.52</v>
+        <v>2934782626.81</v>
       </c>
       <c r="K667" t="inlineStr"/>
     </row>
@@ -20529,7 +20477,7 @@
         <v>0</v>
       </c>
       <c r="J668" t="n">
-        <v>1800000018.52</v>
+        <v>2934782626.81</v>
       </c>
       <c r="K668" t="inlineStr"/>
     </row>
@@ -20598,11 +20546,11 @@
         <v>0</v>
       </c>
       <c r="D671" t="n">
-        <v>4625000001.88</v>
+        <v>1.56</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>2023-08-06 to 2025-02-09</t>
+          <t>2023-08-06 to 2024-02-25</t>
         </is>
       </c>
       <c r="F671" t="inlineStr"/>
@@ -20612,7 +20560,7 @@
         <v>0</v>
       </c>
       <c r="J671" t="n">
-        <v>4647727281.88</v>
+        <v>5652173921.86</v>
       </c>
       <c r="K671" t="inlineStr"/>
     </row>
@@ -20631,11 +20579,11 @@
         <v>0</v>
       </c>
       <c r="D672" t="n">
-        <v>4625000001.88</v>
+        <v>1.56</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>2023-08-06 to 2025-02-09</t>
+          <t>2023-08-06 to 2024-02-25</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
@@ -20645,7 +20593,7 @@
         <v>0</v>
       </c>
       <c r="J672" t="n">
-        <v>4647727281.88</v>
+        <v>5652173921.86</v>
       </c>
       <c r="K672" t="inlineStr"/>
     </row>
@@ -20678,7 +20626,7 @@
         <v>0</v>
       </c>
       <c r="J673" t="n">
-        <v>7119047619.98</v>
+        <v>7279069768.35</v>
       </c>
       <c r="K673" t="inlineStr"/>
     </row>
@@ -20711,7 +20659,7 @@
         <v>0</v>
       </c>
       <c r="J674" t="n">
-        <v>7119047619.98</v>
+        <v>7279069768.35</v>
       </c>
       <c r="K674" t="inlineStr"/>
     </row>
@@ -20730,7 +20678,7 @@
         <v>0</v>
       </c>
       <c r="D675" t="n">
-        <v>3.42</v>
+        <v>3.16</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -20744,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="J675" t="n">
-        <v>4294117657.97</v>
+        <v>5113636374.34</v>
       </c>
       <c r="K675" t="inlineStr"/>
     </row>
@@ -20763,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="D676" t="n">
-        <v>3.42</v>
+        <v>3.16</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -20777,7 +20725,7 @@
         <v>0</v>
       </c>
       <c r="J676" t="n">
-        <v>4294117657.97</v>
+        <v>5113636374.34</v>
       </c>
       <c r="K676" t="inlineStr"/>
     </row>
@@ -20802,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="J677" t="n">
-        <v>4164835166.31</v>
+        <v>4333333334.78</v>
       </c>
       <c r="K677" t="inlineStr"/>
     </row>
@@ -20827,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="J678" t="n">
-        <v>4164835166.31</v>
+        <v>4333333334.78</v>
       </c>
       <c r="K678" t="inlineStr"/>
     </row>
@@ -20846,25 +20794,21 @@
         <v>0</v>
       </c>
       <c r="D679" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>2023-06-18 to 2025-02-09</t>
-        </is>
-      </c>
-      <c r="F679" t="n">
-        <v>0</v>
-      </c>
-      <c r="G679" t="n">
-        <v>1</v>
-      </c>
+          <t>2023-06-18 to 2025-02-23</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="n">
         <v>0</v>
       </c>
       <c r="J679" t="n">
-        <v>8.59</v>
+        <v>8.35</v>
       </c>
       <c r="K679" t="inlineStr"/>
     </row>
@@ -20883,25 +20827,21 @@
         <v>0</v>
       </c>
       <c r="D680" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>2023-06-18 to 2025-02-09</t>
-        </is>
-      </c>
-      <c r="F680" t="n">
-        <v>0</v>
-      </c>
-      <c r="G680" t="n">
-        <v>1</v>
-      </c>
+          <t>2023-06-18 to 2025-02-23</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr"/>
+      <c r="G680" t="inlineStr"/>
       <c r="H680" t="inlineStr"/>
       <c r="I680" t="n">
         <v>0</v>
       </c>
       <c r="J680" t="n">
-        <v>8.59</v>
+        <v>8.35</v>
       </c>
       <c r="K680" t="inlineStr"/>
     </row>
@@ -21011,7 +20951,7 @@
         <v>0</v>
       </c>
       <c r="D684" t="n">
-        <v>1250000000</v>
+        <v>1666666666.67</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -21025,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="J684" t="n">
-        <v>2561643837.04</v>
+        <v>2592105264.53</v>
       </c>
       <c r="K684" t="inlineStr"/>
     </row>
@@ -21050,7 +20990,7 @@
         <v>0</v>
       </c>
       <c r="J685" t="n">
-        <v>1269230774.9</v>
+        <v>1259259264.72</v>
       </c>
       <c r="K685" t="inlineStr"/>
     </row>
@@ -21075,7 +21015,7 @@
         <v>0</v>
       </c>
       <c r="J686" t="n">
-        <v>1269230774.9</v>
+        <v>1259259264.72</v>
       </c>
       <c r="K686" t="inlineStr"/>
     </row>
@@ -21094,7 +21034,7 @@
         <v>0</v>
       </c>
       <c r="D687" t="n">
-        <v>500000000</v>
+        <v>600000000</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -21108,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="J687" t="n">
-        <v>1896551724.22</v>
+        <v>1900000000.08</v>
       </c>
       <c r="K687" t="inlineStr"/>
     </row>
@@ -21127,7 +21067,7 @@
         <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>500000000</v>
+        <v>600000000</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -21141,7 +21081,7 @@
         <v>0</v>
       </c>
       <c r="J688" t="n">
-        <v>1896551724.22</v>
+        <v>1900000000.08</v>
       </c>
       <c r="K688" t="inlineStr"/>
     </row>
@@ -21160,7 +21100,7 @@
         <v>0</v>
       </c>
       <c r="D689" t="n">
-        <v>500000000</v>
+        <v>600000000</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -21174,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="J689" t="n">
-        <v>1896551724.22</v>
+        <v>1900000000.08</v>
       </c>
       <c r="K689" t="inlineStr"/>
     </row>
@@ -21193,7 +21133,7 @@
         <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -21207,7 +21147,7 @@
         <v>0</v>
       </c>
       <c r="J690" t="n">
-        <v>8.640000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="K690" t="inlineStr"/>
     </row>
@@ -21226,7 +21166,7 @@
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -21240,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="J691" t="n">
-        <v>8.640000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="K691" t="inlineStr"/>
     </row>
@@ -21309,7 +21249,7 @@
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -21323,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="J694" t="n">
-        <v>3.96</v>
+        <v>180722895.39</v>
       </c>
       <c r="K694" t="inlineStr"/>
     </row>
@@ -21342,7 +21282,7 @@
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -21356,7 +21296,7 @@
         <v>0</v>
       </c>
       <c r="J695" t="n">
-        <v>3.96</v>
+        <v>180722895.39</v>
       </c>
       <c r="K695" t="inlineStr"/>
     </row>
@@ -21375,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="D696" t="n">
-        <v>2.96</v>
+        <v>3.11</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -21389,7 +21329,7 @@
         <v>0</v>
       </c>
       <c r="J696" t="n">
-        <v>4.37</v>
+        <v>4.29</v>
       </c>
       <c r="K696" t="inlineStr"/>
     </row>
@@ -21408,7 +21348,7 @@
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>2.96</v>
+        <v>3.11</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -21422,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="J697" t="n">
-        <v>4.37</v>
+        <v>4.29</v>
       </c>
       <c r="K697" t="inlineStr"/>
     </row>
@@ -21441,21 +21381,25 @@
         <v>0</v>
       </c>
       <c r="D698" t="n">
-        <v>4.96</v>
+        <v>5.44</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>2023-10-01 to 2025-01-26</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
+          <t>2023-10-01 to 2025-02-16</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>0</v>
+      </c>
+      <c r="G698" t="n">
+        <v>1</v>
+      </c>
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="n">
         <v>0</v>
       </c>
       <c r="J698" t="n">
-        <v>3.96</v>
+        <v>4.23</v>
       </c>
       <c r="K698" t="inlineStr"/>
     </row>
@@ -21474,21 +21418,25 @@
         <v>0</v>
       </c>
       <c r="D699" t="n">
-        <v>4.96</v>
+        <v>5.44</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>2023-10-01 to 2025-01-26</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr"/>
+          <t>2023-10-01 to 2025-02-16</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>0</v>
+      </c>
+      <c r="G699" t="n">
+        <v>1</v>
+      </c>
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="n">
         <v>0</v>
       </c>
       <c r="J699" t="n">
-        <v>3.96</v>
+        <v>4.23</v>
       </c>
       <c r="K699" t="inlineStr"/>
     </row>
@@ -21513,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="J700" t="n">
-        <v>738095240.17</v>
+        <v>720930234.58</v>
       </c>
       <c r="K700" t="inlineStr"/>
     </row>
@@ -21538,7 +21486,7 @@
         <v>0</v>
       </c>
       <c r="J701" t="n">
-        <v>738095240.17</v>
+        <v>720930234.58</v>
       </c>
       <c r="K701" t="inlineStr"/>
     </row>
@@ -21596,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="J703" t="n">
-        <v>2430232560.43</v>
+        <v>2420454547.72</v>
       </c>
       <c r="K703" t="inlineStr"/>
     </row>
@@ -21695,7 +21643,7 @@
         <v>0</v>
       </c>
       <c r="J706" t="n">
-        <v>2181818182.27</v>
+        <v>2227848101.7</v>
       </c>
       <c r="K706" t="inlineStr"/>
     </row>
@@ -21728,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="J707" t="n">
-        <v>2181818182.27</v>
+        <v>2227848101.7</v>
       </c>
       <c r="K707" t="inlineStr"/>
     </row>
@@ -21761,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="J708" t="n">
-        <v>6703703706.46</v>
+        <v>6542168677.49</v>
       </c>
       <c r="K708" t="inlineStr"/>
     </row>
@@ -21794,7 +21742,7 @@
         <v>0</v>
       </c>
       <c r="J709" t="n">
-        <v>6703703706.46</v>
+        <v>6542168677.49</v>
       </c>
       <c r="K709" t="inlineStr"/>
     </row>
@@ -21813,11 +21761,11 @@
         <v>0</v>
       </c>
       <c r="D710" t="n">
-        <v>500000001.18</v>
+        <v>800000000.95</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>2023-12-03 to 2024-07-21</t>
+          <t>2023-12-03 to 2025-02-23</t>
         </is>
       </c>
       <c r="F710" t="inlineStr"/>
@@ -21827,7 +21775,7 @@
         <v>0</v>
       </c>
       <c r="J710" t="n">
-        <v>741176471.8099999</v>
+        <v>755813954.6900001</v>
       </c>
       <c r="K710" t="inlineStr"/>
     </row>
@@ -21846,11 +21794,11 @@
         <v>0</v>
       </c>
       <c r="D711" t="n">
-        <v>500000001.18</v>
+        <v>800000000.95</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>2023-12-03 to 2024-07-21</t>
+          <t>2023-12-03 to 2025-02-23</t>
         </is>
       </c>
       <c r="F711" t="inlineStr"/>
@@ -21860,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="J711" t="n">
-        <v>741176471.8099999</v>
+        <v>755813954.6900001</v>
       </c>
       <c r="K711" t="inlineStr"/>
     </row>
@@ -21893,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="J712" t="n">
-        <v>567901244.22</v>
+        <v>602409647.98</v>
       </c>
       <c r="K712" t="inlineStr"/>
     </row>
@@ -21926,7 +21874,7 @@
         <v>0</v>
       </c>
       <c r="J713" t="n">
-        <v>567901244.22</v>
+        <v>602409647.98</v>
       </c>
       <c r="K713" t="inlineStr"/>
     </row>
@@ -21959,7 +21907,7 @@
         <v>0</v>
       </c>
       <c r="J714" t="n">
-        <v>23790123482.3</v>
+        <v>24373494000.8</v>
       </c>
       <c r="K714" t="inlineStr"/>
     </row>
@@ -22042,7 +21990,7 @@
         <v>0</v>
       </c>
       <c r="J717" t="n">
-        <v>15354838723.11</v>
+        <v>14875000013.15</v>
       </c>
       <c r="K717" t="inlineStr"/>
     </row>
@@ -22075,7 +22023,7 @@
         <v>0</v>
       </c>
       <c r="J718" t="n">
-        <v>15354838723.11</v>
+        <v>14875000013.15</v>
       </c>
       <c r="K718" t="inlineStr"/>
     </row>
@@ -22101,14 +22049,18 @@
           <t>2024-12-22 to 2024-12-22</t>
         </is>
       </c>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr"/>
+      <c r="F719" t="n">
+        <v>0</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1</v>
+      </c>
       <c r="H719" t="inlineStr"/>
       <c r="I719" t="n">
         <v>0</v>
       </c>
       <c r="J719" t="n">
-        <v>9558823541.950001</v>
+        <v>9420289867.440001</v>
       </c>
       <c r="K719" t="inlineStr"/>
     </row>
@@ -22134,14 +22086,18 @@
           <t>2024-12-22 to 2024-12-22</t>
         </is>
       </c>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr"/>
+      <c r="F720" t="n">
+        <v>0</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1</v>
+      </c>
       <c r="H720" t="inlineStr"/>
       <c r="I720" t="n">
         <v>0</v>
       </c>
       <c r="J720" t="n">
-        <v>9558823541.950001</v>
+        <v>9420289867.440001</v>
       </c>
       <c r="K720" t="inlineStr"/>
     </row>
@@ -22392,7 +22348,7 @@
         <v>0</v>
       </c>
       <c r="D729" t="n">
-        <v>2.88</v>
+        <v>3.19</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -22406,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="J729" t="n">
-        <v>5.25</v>
+        <v>5.14</v>
       </c>
       <c r="K729" t="inlineStr"/>
     </row>
@@ -22425,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="D730" t="n">
-        <v>2.88</v>
+        <v>3.19</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -22439,7 +22395,7 @@
         <v>0</v>
       </c>
       <c r="J730" t="n">
-        <v>5.25</v>
+        <v>5.14</v>
       </c>
       <c r="K730" t="inlineStr"/>
     </row>
@@ -22472,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="J731" t="n">
-        <v>4375000007.4</v>
+        <v>4285714292.96</v>
       </c>
       <c r="K731" t="inlineStr"/>
     </row>
@@ -22505,7 +22461,7 @@
         <v>0</v>
       </c>
       <c r="J732" t="n">
-        <v>4375000007.4</v>
+        <v>4285714292.96</v>
       </c>
       <c r="K732" t="inlineStr"/>
     </row>
@@ -22538,7 +22494,7 @@
         <v>0</v>
       </c>
       <c r="J733" t="n">
-        <v>12023255816.18</v>
+        <v>11750000002.18</v>
       </c>
       <c r="K733" t="inlineStr"/>
     </row>
@@ -22571,7 +22527,7 @@
         <v>0</v>
       </c>
       <c r="J734" t="n">
-        <v>12023255816.18</v>
+        <v>11750000002.18</v>
       </c>
       <c r="K734" t="inlineStr"/>
     </row>
@@ -22586,17 +22542,9 @@
           <t>GS27F US</t>
         </is>
       </c>
-      <c r="C735" t="n">
-        <v>0</v>
-      </c>
-      <c r="D735" t="n">
-        <v>1</v>
-      </c>
-      <c r="E735" t="inlineStr">
-        <is>
-          <t>2024-03-24 to 2024-03-24</t>
-        </is>
-      </c>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr"/>
+      <c r="E735" t="inlineStr"/>
       <c r="F735" t="inlineStr"/>
       <c r="G735" t="inlineStr"/>
       <c r="H735" t="inlineStr"/>
@@ -22604,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="J735" t="n">
-        <v>641025642.01</v>
+        <v>642857143.8</v>
       </c>
       <c r="K735" t="inlineStr"/>
     </row>
@@ -22619,17 +22567,9 @@
           <t xml:space="preserve">GS27F US                      </t>
         </is>
       </c>
-      <c r="C736" t="n">
-        <v>0</v>
-      </c>
-      <c r="D736" t="n">
-        <v>1</v>
-      </c>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>2024-03-24 to 2024-03-24</t>
-        </is>
-      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr"/>
       <c r="F736" t="inlineStr"/>
       <c r="G736" t="inlineStr"/>
       <c r="H736" t="inlineStr"/>
@@ -22637,7 +22577,7 @@
         <v>0</v>
       </c>
       <c r="J736" t="n">
-        <v>641025642.01</v>
+        <v>642857143.8</v>
       </c>
       <c r="K736" t="inlineStr"/>
     </row>
@@ -22670,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="J737" t="n">
-        <v>676923082.45</v>
+        <v>716417915.87</v>
       </c>
       <c r="K737" t="inlineStr"/>
     </row>
@@ -22703,7 +22643,7 @@
         <v>0</v>
       </c>
       <c r="J738" t="n">
-        <v>676923082.45</v>
+        <v>716417915.87</v>
       </c>
       <c r="K738" t="inlineStr"/>
     </row>
@@ -22722,7 +22662,7 @@
         <v>0</v>
       </c>
       <c r="D739" t="n">
-        <v>3.61</v>
+        <v>3.75</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -22736,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="J739" t="n">
-        <v>6.54</v>
+        <v>6.48</v>
       </c>
       <c r="K739" t="inlineStr"/>
     </row>
@@ -22755,7 +22695,7 @@
         <v>0</v>
       </c>
       <c r="D740" t="n">
-        <v>3.61</v>
+        <v>3.75</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -22769,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="J740" t="n">
-        <v>6.54</v>
+        <v>6.48</v>
       </c>
       <c r="K740" t="inlineStr"/>
     </row>
@@ -22802,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="J741" t="n">
-        <v>5176470588.84</v>
+        <v>5115942029.58</v>
       </c>
       <c r="K741" t="inlineStr"/>
     </row>
@@ -22835,7 +22775,7 @@
         <v>0</v>
       </c>
       <c r="J742" t="n">
-        <v>6696969705.44</v>
+        <v>6705882361.35</v>
       </c>
       <c r="K742" t="inlineStr"/>
     </row>
@@ -22868,7 +22808,7 @@
         <v>0</v>
       </c>
       <c r="J743" t="n">
-        <v>28142857160.2</v>
+        <v>27172413810.87</v>
       </c>
       <c r="K743" t="inlineStr"/>
     </row>
@@ -22901,7 +22841,7 @@
         <v>0</v>
       </c>
       <c r="J744" t="n">
-        <v>4857142858.41</v>
+        <v>4791666667.96</v>
       </c>
       <c r="K744" t="inlineStr"/>
     </row>
@@ -22934,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="J745" t="n">
-        <v>7.91</v>
+        <v>8.27</v>
       </c>
       <c r="K745" t="inlineStr"/>
     </row>
@@ -22967,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="J746" t="n">
-        <v>7.91</v>
+        <v>8.27</v>
       </c>
       <c r="K746" t="inlineStr"/>
     </row>
@@ -23000,7 +22940,7 @@
         <v>0</v>
       </c>
       <c r="J747" t="n">
-        <v>6.59</v>
+        <v>6.74</v>
       </c>
       <c r="K747" t="inlineStr"/>
     </row>
@@ -23033,7 +22973,7 @@
         <v>0</v>
       </c>
       <c r="J748" t="n">
-        <v>6.59</v>
+        <v>6.74</v>
       </c>
       <c r="K748" t="inlineStr"/>
     </row>
@@ -23168,7 +23108,7 @@
         <v>0</v>
       </c>
       <c r="D753" t="n">
-        <v>2.74</v>
+        <v>1.54</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -23182,7 +23122,7 @@
         <v>0</v>
       </c>
       <c r="J753" t="n">
-        <v>76923078.45</v>
+        <v>75000001.65000001</v>
       </c>
       <c r="K753" t="inlineStr"/>
     </row>
@@ -23201,7 +23141,7 @@
         <v>0</v>
       </c>
       <c r="D754" t="n">
-        <v>2.74</v>
+        <v>1.54</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -23215,7 +23155,7 @@
         <v>0</v>
       </c>
       <c r="J754" t="n">
-        <v>76923078.45</v>
+        <v>75000001.65000001</v>
       </c>
       <c r="K754" t="inlineStr"/>
     </row>
@@ -23248,7 +23188,7 @@
         <v>0</v>
       </c>
       <c r="J755" t="n">
-        <v>11.45</v>
+        <v>11.29</v>
       </c>
       <c r="K755" t="inlineStr"/>
     </row>
@@ -23281,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="J756" t="n">
-        <v>11.45</v>
+        <v>11.29</v>
       </c>
       <c r="K756" t="inlineStr"/>
     </row>
@@ -23455,7 +23395,7 @@
         <v>0</v>
       </c>
       <c r="J762" t="n">
-        <v>500000005.52</v>
+        <v>483870973.87</v>
       </c>
       <c r="K762" t="inlineStr"/>
     </row>
@@ -23474,7 +23414,7 @@
         <v>0</v>
       </c>
       <c r="D763" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -23488,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="J763" t="n">
-        <v>6.15</v>
+        <v>6.12</v>
       </c>
       <c r="K763" t="inlineStr"/>
     </row>
@@ -23507,7 +23447,7 @@
         <v>0</v>
       </c>
       <c r="D764" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -23521,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="J764" t="n">
-        <v>6.15</v>
+        <v>6.12</v>
       </c>
       <c r="K764" t="inlineStr"/>
     </row>
@@ -23540,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="D765" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -23554,7 +23494,7 @@
         <v>0</v>
       </c>
       <c r="J765" t="n">
-        <v>6.15</v>
+        <v>6.12</v>
       </c>
       <c r="K765" t="inlineStr"/>
     </row>
@@ -23587,7 +23527,7 @@
         <v>0</v>
       </c>
       <c r="J766" t="n">
-        <v>2815384625.93</v>
+        <v>2761194040.1</v>
       </c>
       <c r="K766" t="inlineStr"/>
     </row>
@@ -23672,11 +23612,11 @@
         <v>0</v>
       </c>
       <c r="D769" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>2023-12-10 to 2024-12-01</t>
+          <t>2024-02-04 to 2024-12-01</t>
         </is>
       </c>
       <c r="F769" t="inlineStr"/>
@@ -23686,7 +23626,7 @@
         <v>0</v>
       </c>
       <c r="J769" t="n">
-        <v>7.32</v>
+        <v>7.56</v>
       </c>
       <c r="K769" t="inlineStr"/>
     </row>
@@ -23705,11 +23645,11 @@
         <v>0</v>
       </c>
       <c r="D770" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>2023-12-10 to 2024-12-01</t>
+          <t>2024-02-04 to 2024-12-01</t>
         </is>
       </c>
       <c r="F770" t="inlineStr"/>
@@ -23719,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="J770" t="n">
-        <v>7.32</v>
+        <v>7.56</v>
       </c>
       <c r="K770" t="inlineStr"/>
     </row>
@@ -23738,11 +23678,11 @@
         <v>0</v>
       </c>
       <c r="D771" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>2023-12-10 to 2024-12-01</t>
+          <t>2024-02-04 to 2024-12-01</t>
         </is>
       </c>
       <c r="F771" t="inlineStr"/>
@@ -23752,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="J771" t="n">
-        <v>7.32</v>
+        <v>7.56</v>
       </c>
       <c r="K771" t="inlineStr"/>
     </row>
@@ -23771,11 +23711,11 @@
         <v>0</v>
       </c>
       <c r="D772" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>2023-12-10 to 2024-12-01</t>
+          <t>2024-02-04 to 2024-12-01</t>
         </is>
       </c>
       <c r="F772" t="inlineStr"/>
@@ -23785,7 +23725,7 @@
         <v>0</v>
       </c>
       <c r="J772" t="n">
-        <v>7.32</v>
+        <v>7.56</v>
       </c>
       <c r="K772" t="inlineStr"/>
     </row>
@@ -23804,11 +23744,11 @@
         <v>0</v>
       </c>
       <c r="D773" t="n">
-        <v>1.96</v>
+        <v>1</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>2024-02-18 to 2024-08-25</t>
+          <t>2024-08-25 to 2024-08-25</t>
         </is>
       </c>
       <c r="F773" t="inlineStr"/>
@@ -23818,7 +23758,7 @@
         <v>0</v>
       </c>
       <c r="J773" t="n">
-        <v>9.19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K773" t="inlineStr"/>
     </row>
@@ -23837,11 +23777,11 @@
         <v>0</v>
       </c>
       <c r="D774" t="n">
-        <v>1.96</v>
+        <v>1</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>2024-02-18 to 2024-08-25</t>
+          <t>2024-08-25 to 2024-08-25</t>
         </is>
       </c>
       <c r="F774" t="inlineStr"/>
@@ -23851,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="J774" t="n">
-        <v>9.19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K774" t="inlineStr"/>
     </row>
@@ -23870,11 +23810,11 @@
         <v>0</v>
       </c>
       <c r="D775" t="n">
-        <v>1.96</v>
+        <v>1</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>2024-02-18 to 2024-08-25</t>
+          <t>2024-08-25 to 2024-08-25</t>
         </is>
       </c>
       <c r="F775" t="inlineStr"/>
@@ -23884,7 +23824,7 @@
         <v>0</v>
       </c>
       <c r="J775" t="n">
-        <v>9.19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K775" t="inlineStr"/>
     </row>
@@ -23903,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="D776" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -23917,7 +23857,7 @@
         <v>0</v>
       </c>
       <c r="J776" t="n">
-        <v>101694918.85</v>
+        <v>306451616.34</v>
       </c>
       <c r="K776" t="inlineStr"/>
     </row>
@@ -23936,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="D777" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -23950,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="J777" t="n">
-        <v>101694918.85</v>
+        <v>306451616.34</v>
       </c>
       <c r="K777" t="inlineStr"/>
     </row>
@@ -23965,17 +23905,9 @@
           <t>B760M D3H</t>
         </is>
       </c>
-      <c r="C778" t="n">
-        <v>0</v>
-      </c>
-      <c r="D778" t="n">
-        <v>1</v>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>2024-08-25 to 2024-08-25</t>
-        </is>
-      </c>
+      <c r="C778" t="inlineStr"/>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr"/>
       <c r="H778" t="inlineStr"/>
@@ -23983,7 +23915,7 @@
         <v>0</v>
       </c>
       <c r="J778" t="n">
-        <v>400000008.58</v>
+        <v>380952389.16</v>
       </c>
       <c r="K778" t="inlineStr"/>
     </row>
@@ -23998,17 +23930,9 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="C779" t="n">
-        <v>0</v>
-      </c>
-      <c r="D779" t="n">
-        <v>1</v>
-      </c>
-      <c r="E779" t="inlineStr">
-        <is>
-          <t>2024-08-25 to 2024-08-25</t>
-        </is>
-      </c>
+      <c r="C779" t="inlineStr"/>
+      <c r="D779" t="inlineStr"/>
+      <c r="E779" t="inlineStr"/>
       <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr"/>
       <c r="H779" t="inlineStr"/>
@@ -24016,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="J779" t="n">
-        <v>400000008.58</v>
+        <v>380952389.16</v>
       </c>
       <c r="K779" t="inlineStr"/>
     </row>
@@ -24049,7 +23973,7 @@
         <v>0</v>
       </c>
       <c r="J780" t="n">
-        <v>7771929851.47</v>
+        <v>7508474602.97</v>
       </c>
       <c r="K780" t="inlineStr"/>
     </row>
@@ -24082,7 +24006,7 @@
         <v>0</v>
       </c>
       <c r="J781" t="n">
-        <v>7771929851.47</v>
+        <v>7508474602.97</v>
       </c>
       <c r="K781" t="inlineStr"/>
     </row>
@@ -24115,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="J782" t="n">
-        <v>7771929851.47</v>
+        <v>7508474602.97</v>
       </c>
       <c r="K782" t="inlineStr"/>
     </row>
@@ -24140,7 +24064,7 @@
         <v>0</v>
       </c>
       <c r="J783" t="n">
-        <v>2116279080.41</v>
+        <v>2022222232.8</v>
       </c>
       <c r="K783" t="inlineStr"/>
     </row>
@@ -24165,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="J784" t="n">
-        <v>2116279080.41</v>
+        <v>2022222232.8</v>
       </c>
       <c r="K784" t="inlineStr"/>
     </row>
@@ -24190,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="J785" t="n">
-        <v>23448275870.91</v>
+        <v>22750000008.63</v>
       </c>
       <c r="K785" t="inlineStr"/>
     </row>
@@ -24223,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="J786" t="n">
-        <v>8880952395.030001</v>
+        <v>8477272742.94</v>
       </c>
       <c r="K786" t="inlineStr"/>
     </row>
@@ -24256,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="J787" t="n">
-        <v>8880952395.030001</v>
+        <v>8477272742.94</v>
       </c>
       <c r="K787" t="inlineStr"/>
     </row>
@@ -24275,11 +24199,11 @@
         <v>0</v>
       </c>
       <c r="D788" t="n">
-        <v>24.67</v>
+        <v>36.5</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>2024-04-07 to 2024-08-25</t>
+          <t>2024-04-07 to 2024-07-28</t>
         </is>
       </c>
       <c r="F788" t="inlineStr"/>
@@ -24289,7 +24213,7 @@
         <v>0</v>
       </c>
       <c r="J788" t="n">
-        <v>7053571446.34</v>
+        <v>6694915271.53</v>
       </c>
       <c r="K788" t="inlineStr"/>
     </row>
@@ -24314,7 +24238,7 @@
         <v>0</v>
       </c>
       <c r="J789" t="n">
-        <v>869565228.37</v>
+        <v>833333344.29</v>
       </c>
       <c r="K789" t="inlineStr"/>
     </row>
@@ -24339,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="J790" t="n">
-        <v>869565228.37</v>
+        <v>833333344.29</v>
       </c>
       <c r="K790" t="inlineStr"/>
     </row>
@@ -24372,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="J791" t="n">
-        <v>1000000024.02</v>
+        <v>965517265.25</v>
       </c>
       <c r="K791" t="inlineStr"/>
     </row>
@@ -24405,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="J792" t="n">
-        <v>965517251.67</v>
+        <v>933333343.66</v>
       </c>
       <c r="K792" t="inlineStr"/>
     </row>
@@ -24457,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="D794" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -24471,7 +24395,7 @@
         <v>0</v>
       </c>
       <c r="J794" t="n">
-        <v>2365384632.75</v>
+        <v>2277777794.77</v>
       </c>
       <c r="K794" t="inlineStr"/>
     </row>
@@ -24490,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="D795" t="n">
-        <v>3.54</v>
+        <v>3.03</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -24504,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="J795" t="n">
-        <v>2452830195.51</v>
+        <v>2452830195.49</v>
       </c>
       <c r="K795" t="inlineStr"/>
     </row>
@@ -24537,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="J796" t="n">
-        <v>1200000014.31</v>
+        <v>1192982469.97</v>
       </c>
       <c r="K796" t="inlineStr"/>
     </row>
@@ -24622,11 +24546,11 @@
         <v>0</v>
       </c>
       <c r="D799" t="n">
-        <v>20000000000.49</v>
+        <v>30000000000.42</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>2024-01-14 to 2025-01-26</t>
+          <t>2024-01-14 to 2024-02-11</t>
         </is>
       </c>
       <c r="F799" t="inlineStr"/>
@@ -24636,7 +24560,7 @@
         <v>0</v>
       </c>
       <c r="J799" t="n">
-        <v>10.93</v>
+        <v>12.14</v>
       </c>
       <c r="K799" t="inlineStr"/>
     </row>
@@ -24669,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="J800" t="n">
-        <v>3145454549.88</v>
+        <v>3052631583.23</v>
       </c>
       <c r="K800" t="inlineStr"/>
     </row>
@@ -24688,11 +24612,11 @@
         <v>0</v>
       </c>
       <c r="D801" t="n">
-        <v>2.53</v>
+        <v>2.22</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>2024-02-25 to 2024-06-30</t>
+          <t>2024-02-25 to 2024-08-25</t>
         </is>
       </c>
       <c r="F801" t="inlineStr"/>
@@ -24702,7 +24626,7 @@
         <v>0</v>
       </c>
       <c r="J801" t="n">
-        <v>250000005.45</v>
+        <v>250000005.43</v>
       </c>
       <c r="K801" t="inlineStr"/>
     </row>
@@ -24779,21 +24703,25 @@
         <v>0</v>
       </c>
       <c r="D804" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
           <t>2024-08-04 to 2024-12-22</t>
         </is>
       </c>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr"/>
+      <c r="F804" t="n">
+        <v>0</v>
+      </c>
+      <c r="G804" t="n">
+        <v>1</v>
+      </c>
       <c r="H804" t="inlineStr"/>
       <c r="I804" t="n">
         <v>0</v>
       </c>
       <c r="J804" t="n">
-        <v>6294117652.81</v>
+        <v>6056603779.28</v>
       </c>
       <c r="K804" t="inlineStr"/>
     </row>
@@ -24826,7 +24754,7 @@
         <v>0</v>
       </c>
       <c r="J805" t="n">
-        <v>381818186.6</v>
+        <v>375000004.7</v>
       </c>
       <c r="K805" t="inlineStr"/>
     </row>
@@ -24859,7 +24787,7 @@
         <v>0</v>
       </c>
       <c r="J806" t="n">
-        <v>6940000008.55</v>
+        <v>6803921577.01</v>
       </c>
       <c r="K806" t="inlineStr"/>
     </row>
@@ -24878,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="D807" t="n">
-        <v>2.42</v>
+        <v>3.13</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -24892,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="J807" t="n">
-        <v>13333333339.4</v>
+        <v>12701754391.8</v>
       </c>
       <c r="K807" t="inlineStr"/>
     </row>
@@ -24925,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="J808" t="n">
-        <v>3679245292.7</v>
+        <v>3545454554.8</v>
       </c>
       <c r="K808" t="inlineStr"/>
     </row>
@@ -24950,7 +24878,7 @@
         <v>0</v>
       </c>
       <c r="J809" t="n">
-        <v>12.66</v>
+        <v>14.53</v>
       </c>
       <c r="K809" t="inlineStr"/>
     </row>
@@ -24975,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="J810" t="n">
-        <v>12.66</v>
+        <v>14.53</v>
       </c>
       <c r="K810" t="inlineStr"/>
     </row>
@@ -25001,14 +24929,18 @@
           <t>2024-01-21 to 2025-01-19</t>
         </is>
       </c>
-      <c r="F811" t="inlineStr"/>
-      <c r="G811" t="inlineStr"/>
+      <c r="F811" t="n">
+        <v>0</v>
+      </c>
+      <c r="G811" t="n">
+        <v>1</v>
+      </c>
       <c r="H811" t="inlineStr"/>
       <c r="I811" t="n">
         <v>0</v>
       </c>
       <c r="J811" t="n">
-        <v>11.64</v>
+        <v>11.51</v>
       </c>
       <c r="K811" t="inlineStr"/>
     </row>
@@ -25027,11 +24959,11 @@
         <v>0</v>
       </c>
       <c r="D812" t="n">
-        <v>3.18</v>
+        <v>1</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>2024-08-18 to 2024-08-25</t>
+          <t>2024-08-25 to 2024-08-25</t>
         </is>
       </c>
       <c r="F812" t="inlineStr"/>
@@ -25041,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="J812" t="n">
-        <v>2641509443.11</v>
+        <v>2500000009.18</v>
       </c>
       <c r="K812" t="inlineStr"/>
     </row>
@@ -25074,7 +25006,7 @@
         <v>0</v>
       </c>
       <c r="J813" t="n">
-        <v>203703710.71</v>
+        <v>232142863.93</v>
       </c>
       <c r="K813" t="inlineStr"/>
     </row>
@@ -25107,7 +25039,7 @@
         <v>0</v>
       </c>
       <c r="J814" t="n">
-        <v>203703710.71</v>
+        <v>232142863.93</v>
       </c>
       <c r="K814" t="inlineStr"/>
     </row>
@@ -25240,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="J819" t="n">
-        <v>800000010.21</v>
+        <v>769230779.34</v>
       </c>
       <c r="K819" t="inlineStr"/>
     </row>
@@ -25265,7 +25197,7 @@
         <v>0</v>
       </c>
       <c r="J820" t="n">
-        <v>3166666675.16</v>
+        <v>3053571437.08</v>
       </c>
       <c r="K820" t="inlineStr"/>
     </row>
@@ -25290,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="J821" t="n">
-        <v>9148148167.860001</v>
+        <v>9678571447.73</v>
       </c>
       <c r="K821" t="inlineStr"/>
     </row>
@@ -25315,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="J822" t="n">
-        <v>2407407423.97</v>
+        <v>2321428588.03</v>
       </c>
       <c r="K822" t="inlineStr"/>
     </row>
@@ -25330,17 +25262,9 @@
           <t>B760 DS3H AC</t>
         </is>
       </c>
-      <c r="C823" t="n">
-        <v>0</v>
-      </c>
-      <c r="D823" t="n">
-        <v>27.67</v>
-      </c>
-      <c r="E823" t="inlineStr">
-        <is>
-          <t>2024-08-18 to 2024-08-18</t>
-        </is>
-      </c>
+      <c r="C823" t="inlineStr"/>
+      <c r="D823" t="inlineStr"/>
+      <c r="E823" t="inlineStr"/>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
       <c r="H823" t="inlineStr"/>
@@ -25348,7 +25272,7 @@
         <v>0</v>
       </c>
       <c r="J823" t="n">
-        <v>15788461562.4</v>
+        <v>15890909114.22</v>
       </c>
       <c r="K823" t="inlineStr"/>
     </row>
@@ -25373,7 +25297,7 @@
         <v>0</v>
       </c>
       <c r="J824" t="n">
-        <v>5092592608.91</v>
+        <v>5071428587.33</v>
       </c>
       <c r="K824" t="inlineStr"/>
     </row>
@@ -25398,7 +25322,7 @@
         <v>0</v>
       </c>
       <c r="J825" t="n">
-        <v>6346153858.35</v>
+        <v>6907407419.97</v>
       </c>
       <c r="K825" t="inlineStr"/>
     </row>
@@ -25431,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="J826" t="n">
-        <v>4115384622.25</v>
+        <v>7111111122.19</v>
       </c>
       <c r="K826" t="inlineStr"/>
     </row>
@@ -25456,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="J827" t="n">
-        <v>12960784325.64</v>
+        <v>16245283030.34</v>
       </c>
       <c r="K827" t="inlineStr"/>
     </row>
@@ -25475,11 +25399,11 @@
         <v>0</v>
       </c>
       <c r="D828" t="n">
-        <v>5.75</v>
+        <v>10.5</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>2024-06-30 to 2024-08-25</t>
+          <t>2024-06-30 to 2024-06-30</t>
         </is>
       </c>
       <c r="F828" t="inlineStr"/>
@@ -25489,7 +25413,7 @@
         <v>0</v>
       </c>
       <c r="J828" t="n">
-        <v>1750000010.86</v>
+        <v>1654545464.99</v>
       </c>
       <c r="K828" t="inlineStr"/>
     </row>
@@ -25508,11 +25432,11 @@
         <v>0</v>
       </c>
       <c r="D829" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>2024-07-07 to 2024-07-07</t>
+          <t>2024-07-07 to 2024-08-25</t>
         </is>
       </c>
       <c r="F829" t="inlineStr"/>
@@ -25522,7 +25446,7 @@
         <v>0</v>
       </c>
       <c r="J829" t="n">
-        <v>6161290328.94</v>
+        <v>6366666673.2</v>
       </c>
       <c r="K829" t="inlineStr"/>
     </row>
@@ -25537,9 +25461,17 @@
           <t>AORUS 16X ASG-63USC65SH</t>
         </is>
       </c>
-      <c r="C830" t="inlineStr"/>
-      <c r="D830" t="inlineStr"/>
-      <c r="E830" t="inlineStr"/>
+      <c r="C830" t="n">
+        <v>0</v>
+      </c>
+      <c r="D830" t="n">
+        <v>7</v>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>2024-08-18 to 2024-08-18</t>
+        </is>
+      </c>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
       <c r="H830" t="inlineStr"/>
@@ -25547,7 +25479,7 @@
         <v>0</v>
       </c>
       <c r="J830" t="n">
-        <v>3870370376.58</v>
+        <v>3870370376.45</v>
       </c>
       <c r="K830" t="inlineStr"/>
     </row>
@@ -25605,7 +25537,7 @@
         <v>0</v>
       </c>
       <c r="J832" t="n">
-        <v>5648148160.13</v>
+        <v>5446428583.23</v>
       </c>
       <c r="K832" t="inlineStr"/>
     </row>
@@ -25630,7 +25562,7 @@
         <v>0</v>
       </c>
       <c r="J833" t="n">
-        <v>2188679248.07</v>
+        <v>2148148150.89</v>
       </c>
       <c r="K833" t="inlineStr"/>
     </row>
@@ -25663,7 +25595,7 @@
         <v>0</v>
       </c>
       <c r="J834" t="n">
-        <v>12018867926.72</v>
+        <v>12418181820.3</v>
       </c>
       <c r="K834" t="inlineStr"/>
     </row>
@@ -25721,7 +25653,7 @@
         <v>0</v>
       </c>
       <c r="J836" t="n">
-        <v>4333333344.71</v>
+        <v>4160000011.55</v>
       </c>
       <c r="K836" t="inlineStr"/>
     </row>
@@ -25746,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="J837" t="n">
-        <v>2307692315.56</v>
+        <v>2222222229.84</v>
       </c>
       <c r="K837" t="inlineStr"/>
     </row>
@@ -25804,7 +25736,7 @@
         <v>0</v>
       </c>
       <c r="J839" t="n">
-        <v>2549019622.45</v>
+        <v>2452830203.01</v>
       </c>
       <c r="K839" t="inlineStr"/>
     </row>
@@ -25837,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="J840" t="n">
-        <v>104166677.88</v>
+        <v>100000010.89</v>
       </c>
       <c r="K840" t="inlineStr"/>
     </row>
@@ -25870,7 +25802,7 @@
         <v>0</v>
       </c>
       <c r="J841" t="n">
-        <v>1244897967.28</v>
+        <v>1196078439.39</v>
       </c>
       <c r="K841" t="inlineStr"/>
     </row>
@@ -25903,7 +25835,7 @@
         <v>0</v>
       </c>
       <c r="J842" t="n">
-        <v>17562500015.1</v>
+        <v>16860000014.72</v>
       </c>
       <c r="K842" t="inlineStr"/>
     </row>
@@ -25928,7 +25860,7 @@
         <v>0</v>
       </c>
       <c r="J843" t="n">
-        <v>8260000013.97</v>
+        <v>9384615398.049999</v>
       </c>
       <c r="K843" t="inlineStr"/>
     </row>
@@ -25972,7 +25904,7 @@
         <v>0</v>
       </c>
       <c r="D845" t="n">
-        <v>40000000000</v>
+        <v>38000000000</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -25990,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="J845" t="n">
-        <v>30173913046.99</v>
+        <v>30489795921.67</v>
       </c>
       <c r="K845" t="inlineStr"/>
     </row>
@@ -26023,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="J846" t="n">
-        <v>18959183680.67</v>
+        <v>18921568634.37</v>
       </c>
       <c r="K846" t="inlineStr"/>
     </row>
@@ -26048,7 +25980,7 @@
         <v>0</v>
       </c>
       <c r="J847" t="n">
-        <v>3940000009.21</v>
+        <v>3788461548.04</v>
       </c>
       <c r="K847" t="inlineStr"/>
     </row>
@@ -26073,7 +26005,7 @@
         <v>0</v>
       </c>
       <c r="J848" t="n">
-        <v>3340000008.3</v>
+        <v>3211538469.66</v>
       </c>
       <c r="K848" t="inlineStr"/>
     </row>
@@ -26125,21 +26057,25 @@
         <v>0</v>
       </c>
       <c r="D850" t="n">
-        <v>14500000004</v>
+        <v>19333333338.33</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
           <t>2024-08-04 to 2024-11-24</t>
         </is>
       </c>
-      <c r="F850" t="inlineStr"/>
-      <c r="G850" t="inlineStr"/>
+      <c r="F850" t="n">
+        <v>0</v>
+      </c>
+      <c r="G850" t="n">
+        <v>1</v>
+      </c>
       <c r="H850" t="inlineStr"/>
       <c r="I850" t="n">
         <v>0</v>
       </c>
       <c r="J850" t="n">
-        <v>6159090913.14</v>
+        <v>5891304352</v>
       </c>
       <c r="K850" t="inlineStr"/>
     </row>
@@ -26164,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="J851" t="n">
-        <v>4063829793.27</v>
+        <v>3897959189.83</v>
       </c>
       <c r="K851" t="inlineStr"/>
     </row>
@@ -26183,11 +26119,11 @@
         <v>0</v>
       </c>
       <c r="D852" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t>2024-11-10 to 2024-12-01</t>
+          <t>2024-08-25 to 2024-12-01</t>
         </is>
       </c>
       <c r="F852" t="inlineStr"/>
@@ -26197,7 +26133,7 @@
         <v>0</v>
       </c>
       <c r="J852" t="n">
-        <v>5914285722.22</v>
+        <v>5750000007.89</v>
       </c>
       <c r="K852" t="inlineStr"/>
     </row>
@@ -26255,7 +26191,7 @@
         <v>0</v>
       </c>
       <c r="J854" t="n">
-        <v>3675000013.76</v>
+        <v>3500000013.81</v>
       </c>
       <c r="K854" t="inlineStr"/>
     </row>
@@ -26280,7 +26216,7 @@
         <v>0</v>
       </c>
       <c r="J855" t="n">
-        <v>10.23</v>
+        <v>9.84</v>
       </c>
       <c r="K855" t="inlineStr"/>
     </row>
@@ -26381,18 +26317,14 @@
           <t>2024-06-23 to 2024-06-30</t>
         </is>
       </c>
-      <c r="F859" t="n">
-        <v>0</v>
-      </c>
-      <c r="G859" t="n">
-        <v>1</v>
-      </c>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="inlineStr"/>
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="n">
         <v>0</v>
       </c>
       <c r="J859" t="n">
-        <v>5.83</v>
+        <v>5.7</v>
       </c>
       <c r="K859" t="inlineStr"/>
     </row>
@@ -26450,7 +26382,7 @@
         <v>0</v>
       </c>
       <c r="J861" t="n">
-        <v>175000010.95</v>
+        <v>166666677.61</v>
       </c>
       <c r="K861" t="inlineStr"/>
     </row>
@@ -26469,11 +26401,11 @@
         <v>0</v>
       </c>
       <c r="D862" t="n">
-        <v>8.52</v>
+        <v>16.04</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t>2024-08-25 to 2024-12-01</t>
+          <t>2024-12-01 to 2024-12-01</t>
         </is>
       </c>
       <c r="F862" t="inlineStr"/>
@@ -26483,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="J862" t="n">
-        <v>5256410279.46</v>
+        <v>4880952402.71</v>
       </c>
       <c r="K862" t="inlineStr"/>
     </row>
@@ -26516,7 +26448,7 @@
         <v>0</v>
       </c>
       <c r="J863" t="n">
-        <v>2631578959.23</v>
+        <v>2500000011.91</v>
       </c>
       <c r="K863" t="inlineStr"/>
     </row>
@@ -26535,11 +26467,11 @@
         <v>0</v>
       </c>
       <c r="D864" t="n">
-        <v>4.93</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t>2024-06-30 to 2024-08-25</t>
+          <t>2024-06-30 to 2024-07-07</t>
         </is>
       </c>
       <c r="F864" t="inlineStr"/>
@@ -26549,7 +26481,7 @@
         <v>0</v>
       </c>
       <c r="J864" t="n">
-        <v>1600000010.04</v>
+        <v>1400000010.63</v>
       </c>
       <c r="K864" t="inlineStr"/>
     </row>
@@ -26568,11 +26500,11 @@
         <v>0</v>
       </c>
       <c r="D865" t="n">
-        <v>7.42</v>
+        <v>7.4</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t>2024-07-14 to 2024-12-08</t>
+          <t>2024-07-14 to 2024-11-17</t>
         </is>
       </c>
       <c r="F865" t="inlineStr"/>
@@ -26582,7 +26514,7 @@
         <v>0</v>
       </c>
       <c r="J865" t="n">
-        <v>4303030310.38</v>
+        <v>3837837845.35</v>
       </c>
       <c r="K865" t="inlineStr"/>
     </row>
@@ -26651,21 +26583,25 @@
         <v>0</v>
       </c>
       <c r="D868" t="n">
-        <v>750000000.25</v>
+        <v>1000000000</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
           <t>2024-08-04 to 2024-11-17</t>
         </is>
       </c>
-      <c r="F868" t="inlineStr"/>
-      <c r="G868" t="inlineStr"/>
+      <c r="F868" t="n">
+        <v>0</v>
+      </c>
+      <c r="G868" t="n">
+        <v>1</v>
+      </c>
       <c r="H868" t="inlineStr"/>
       <c r="I868" t="n">
         <v>0</v>
       </c>
       <c r="J868" t="n">
-        <v>1000000000</v>
+        <v>972222222.22</v>
       </c>
       <c r="K868" t="inlineStr"/>
     </row>
@@ -26759,11 +26695,11 @@
         <v>0</v>
       </c>
       <c r="D872" t="n">
-        <v>9000000000</v>
+        <v>4500000000.5</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>2025-01-26 to 2025-01-26</t>
+          <t>2024-08-25 to 2025-01-26</t>
         </is>
       </c>
       <c r="F872" t="inlineStr"/>
@@ -26773,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J872" t="n">
-        <v>8128205128.23</v>
+        <v>8375000000</v>
       </c>
       <c r="K872" t="inlineStr"/>
     </row>
@@ -26788,17 +26724,9 @@
           <t>AERO 16 XE4-73US918HP-R</t>
         </is>
       </c>
-      <c r="C873" t="n">
-        <v>0</v>
-      </c>
-      <c r="D873" t="n">
-        <v>3</v>
-      </c>
-      <c r="E873" t="inlineStr">
-        <is>
-          <t>2024-08-18 to 2024-08-18</t>
-        </is>
-      </c>
+      <c r="C873" t="inlineStr"/>
+      <c r="D873" t="inlineStr"/>
+      <c r="E873" t="inlineStr"/>
       <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr"/>
       <c r="H873" t="inlineStr"/>
@@ -26806,7 +26734,7 @@
         <v>0</v>
       </c>
       <c r="J873" t="n">
-        <v>3000000000.08</v>
+        <v>2880952381.1</v>
       </c>
       <c r="K873" t="inlineStr"/>
     </row>
@@ -26906,7 +26834,7 @@
         <v>0</v>
       </c>
       <c r="J877" t="n">
-        <v>1175000000.1</v>
+        <v>1146341463.51</v>
       </c>
       <c r="K877" t="inlineStr"/>
     </row>
@@ -27005,7 +26933,7 @@
         <v>0</v>
       </c>
       <c r="J880" t="n">
-        <v>1026315789.5</v>
+        <v>1025000000.02</v>
       </c>
       <c r="K880" t="inlineStr"/>
     </row>
@@ -27055,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J882" t="n">
-        <v>950000000.02</v>
+        <v>952380952.4</v>
       </c>
       <c r="K882" t="inlineStr"/>
     </row>
@@ -27113,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="J884" t="n">
-        <v>4800000001.88</v>
+        <v>4714285716.07</v>
       </c>
       <c r="K884" t="inlineStr"/>
     </row>
@@ -27261,17 +27189,9 @@
           <t>AERO 15-X9-RT5P-R</t>
         </is>
       </c>
-      <c r="C890" t="n">
-        <v>0</v>
-      </c>
-      <c r="D890" t="n">
-        <v>0</v>
-      </c>
-      <c r="E890" t="inlineStr">
-        <is>
-          <t>2024-08-18 to 2024-08-18</t>
-        </is>
-      </c>
+      <c r="C890" t="inlineStr"/>
+      <c r="D890" t="inlineStr"/>
+      <c r="E890" t="inlineStr"/>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
       <c r="H890" t="inlineStr"/>
@@ -27279,7 +27199,7 @@
         <v>0</v>
       </c>
       <c r="J890" t="n">
-        <v>600000000</v>
+        <v>545454545.45</v>
       </c>
       <c r="K890" t="inlineStr"/>
     </row>
@@ -27312,7 +27232,7 @@
         <v>0</v>
       </c>
       <c r="J891" t="n">
-        <v>1948717948.74</v>
+        <v>1951219512.22</v>
       </c>
       <c r="K891" t="inlineStr"/>
     </row>
@@ -27456,21 +27376,25 @@
         <v>0</v>
       </c>
       <c r="D897" t="n">
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>2024-11-10 to 2024-12-01</t>
-        </is>
-      </c>
-      <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr"/>
+          <t>2024-08-25 to 2024-12-01</t>
+        </is>
+      </c>
+      <c r="F897" t="n">
+        <v>0</v>
+      </c>
+      <c r="G897" t="n">
+        <v>0.41</v>
+      </c>
       <c r="H897" t="inlineStr"/>
       <c r="I897" t="n">
         <v>0</v>
       </c>
       <c r="J897" t="n">
-        <v>5714285722.56</v>
+        <v>5714285722.63</v>
       </c>
       <c r="K897" t="inlineStr"/>
     </row>
@@ -27489,11 +27413,11 @@
         <v>0</v>
       </c>
       <c r="D898" t="n">
-        <v>3.4</v>
+        <v>2.29</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>2025-01-12 to 2025-01-12</t>
+          <t>2024-08-25 to 2024-11-17</t>
         </is>
       </c>
       <c r="F898" t="inlineStr"/>
@@ -27503,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="J898" t="n">
-        <v>1081081088.02</v>
+        <v>1052631588.77</v>
       </c>
       <c r="K898" t="inlineStr"/>
     </row>
@@ -27536,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="J899" t="n">
-        <v>1818181829.42</v>
+        <v>1714285725.68</v>
       </c>
       <c r="K899" t="inlineStr"/>
     </row>
@@ -27561,7 +27485,7 @@
         <v>0</v>
       </c>
       <c r="J900" t="n">
-        <v>12763157902.2</v>
+        <v>12875000008.19</v>
       </c>
       <c r="K900" t="inlineStr"/>
     </row>
@@ -27669,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="J904" t="n">
-        <v>11138888909.81</v>
+        <v>11078947388.24</v>
       </c>
       <c r="K904" t="inlineStr"/>
     </row>
@@ -27694,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="J905" t="n">
-        <v>11857142867.9</v>
+        <v>11324324334.5</v>
       </c>
       <c r="K905" t="inlineStr"/>
     </row>
@@ -27719,7 +27643,7 @@
         <v>0</v>
       </c>
       <c r="J906" t="n">
-        <v>742857157.42</v>
+        <v>729729743.53</v>
       </c>
       <c r="K906" t="inlineStr"/>
     </row>
@@ -27777,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="J908" t="n">
-        <v>5965517247.55</v>
+        <v>5580645167.22</v>
       </c>
       <c r="K908" t="inlineStr"/>
     </row>
@@ -27810,7 +27734,7 @@
         <v>0</v>
       </c>
       <c r="J909" t="n">
-        <v>9464285739.41</v>
+        <v>8833333357.6</v>
       </c>
       <c r="K909" t="inlineStr"/>
     </row>
@@ -27835,7 +27759,7 @@
         <v>0</v>
       </c>
       <c r="J910" t="n">
-        <v>6266666674.73</v>
+        <v>5875000008.16</v>
       </c>
       <c r="K910" t="inlineStr"/>
     </row>
@@ -27854,11 +27778,11 @@
         <v>0</v>
       </c>
       <c r="D911" t="n">
-        <v>2.61</v>
+        <v>4.03</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>2025-02-09 to 2025-02-09</t>
+          <t>2025-02-09 to 2025-02-23</t>
         </is>
       </c>
       <c r="F911" t="inlineStr"/>
@@ -27883,9 +27807,17 @@
           <t>B760M C V2</t>
         </is>
       </c>
-      <c r="C912" t="inlineStr"/>
-      <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr"/>
+      <c r="C912" t="n">
+        <v>0</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1</v>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>2024-08-25 to 2024-08-25</t>
+        </is>
+      </c>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr"/>
@@ -27893,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="J912" t="n">
-        <v>5548387108.83</v>
+        <v>5375000012.09</v>
       </c>
       <c r="K912" t="inlineStr"/>
     </row>
@@ -27926,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="J913" t="n">
-        <v>17925925935.04</v>
+        <v>16689655182.24</v>
       </c>
       <c r="K913" t="inlineStr"/>
     </row>
@@ -27988,7 +27920,7 @@
         <v>0</v>
       </c>
       <c r="J915" t="n">
-        <v>4379310346.44</v>
+        <v>4290322582.15</v>
       </c>
       <c r="K915" t="inlineStr"/>
     </row>
@@ -28021,7 +27953,7 @@
         <v>0</v>
       </c>
       <c r="J916" t="n">
-        <v>357142868.08</v>
+        <v>333333344.28</v>
       </c>
       <c r="K916" t="inlineStr"/>
     </row>
@@ -28054,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="J917" t="n">
-        <v>5666666672.83</v>
+        <v>5275862075.31</v>
       </c>
       <c r="K917" t="inlineStr"/>
     </row>
@@ -28069,17 +28001,9 @@
           <t>M27QA ICE-SA</t>
         </is>
       </c>
-      <c r="C918" t="n">
-        <v>0</v>
-      </c>
-      <c r="D918" t="n">
-        <v>1</v>
-      </c>
-      <c r="E918" t="inlineStr">
-        <is>
-          <t>2024-08-25 to 2024-08-25</t>
-        </is>
-      </c>
+      <c r="C918" t="inlineStr"/>
+      <c r="D918" t="inlineStr"/>
+      <c r="E918" t="inlineStr"/>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr"/>
@@ -28087,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="J918" t="n">
-        <v>8148148157.05</v>
+        <v>7333333341.64</v>
       </c>
       <c r="K918" t="inlineStr"/>
     </row>
@@ -28112,7 +28036,7 @@
         <v>0</v>
       </c>
       <c r="J919" t="n">
-        <v>11208333342.08</v>
+        <v>10346153856.14</v>
       </c>
       <c r="K919" t="inlineStr"/>
     </row>
@@ -28137,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="J920" t="n">
-        <v>3600000003.13</v>
+        <v>3000000002.61</v>
       </c>
       <c r="K920" t="inlineStr"/>
     </row>
@@ -28162,7 +28086,7 @@
         <v>0</v>
       </c>
       <c r="J921" t="n">
-        <v>10772727290.12</v>
+        <v>9875000016.18</v>
       </c>
       <c r="K921" t="inlineStr"/>
     </row>
@@ -28195,7 +28119,7 @@
         <v>0</v>
       </c>
       <c r="J922" t="n">
-        <v>40681818194.65</v>
+        <v>37291666679.31</v>
       </c>
       <c r="K922" t="inlineStr"/>
     </row>
@@ -28214,11 +28138,11 @@
         <v>0</v>
       </c>
       <c r="D923" t="n">
-        <v>18.07</v>
+        <v>18.84</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>2025-01-19 to 2025-02-09</t>
+          <t>2025-01-19 to 2025-02-23</t>
         </is>
       </c>
       <c r="F923" t="inlineStr"/>
@@ -28228,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="J923" t="n">
-        <v>100555555564.01</v>
+        <v>90500000008.84</v>
       </c>
       <c r="K923" t="inlineStr"/>
     </row>
@@ -28261,7 +28185,7 @@
         <v>0</v>
       </c>
       <c r="J924" t="n">
-        <v>49600000009.39</v>
+        <v>45090909100.23</v>
       </c>
       <c r="K924" t="inlineStr"/>
     </row>
@@ -28294,7 +28218,7 @@
         <v>0</v>
       </c>
       <c r="J925" t="n">
-        <v>35142857164.84</v>
+        <v>32086956542.14</v>
       </c>
       <c r="K925" t="inlineStr"/>
     </row>
@@ -28313,11 +28237,11 @@
         <v>0</v>
       </c>
       <c r="D926" t="n">
-        <v>5.08</v>
+        <v>6.97</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>2025-01-19 to 2025-02-09</t>
+          <t>2025-01-19 to 2025-02-23</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
@@ -28327,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="J926" t="n">
-        <v>38526315814.9</v>
+        <v>36600000024.4</v>
       </c>
       <c r="K926" t="inlineStr"/>
     </row>
@@ -28352,7 +28276,7 @@
         <v>0</v>
       </c>
       <c r="J927" t="n">
-        <v>40523809539.4</v>
+        <v>37000000014.89</v>
       </c>
       <c r="K927" t="inlineStr"/>
     </row>
@@ -28385,7 +28309,7 @@
         <v>0</v>
       </c>
       <c r="J928" t="n">
-        <v>123315789487.04</v>
+        <v>111571428584.48</v>
       </c>
       <c r="K928" t="inlineStr"/>
     </row>
@@ -28400,9 +28324,17 @@
           <t>X870E AORUS MASTER</t>
         </is>
       </c>
-      <c r="C929" t="inlineStr"/>
-      <c r="D929" t="inlineStr"/>
-      <c r="E929" t="inlineStr"/>
+      <c r="C929" t="n">
+        <v>0</v>
+      </c>
+      <c r="D929" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>2025-02-09 to 2025-02-23</t>
+        </is>
+      </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr"/>
@@ -28410,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="J929" t="n">
-        <v>22347826092.42</v>
+        <v>23363636369.07</v>
       </c>
       <c r="K929" t="inlineStr"/>
     </row>
@@ -28429,11 +28361,11 @@
         <v>0</v>
       </c>
       <c r="D930" t="n">
-        <v>9.98</v>
+        <v>10.24</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>2025-01-26 to 2025-02-09</t>
+          <t>2025-01-26 to 2025-01-26</t>
         </is>
       </c>
       <c r="F930" t="inlineStr"/>
@@ -28443,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="J930" t="n">
-        <v>76631578962.42</v>
+        <v>66181818196.44</v>
       </c>
       <c r="K930" t="inlineStr"/>
     </row>
@@ -28468,7 +28400,7 @@
         <v>0</v>
       </c>
       <c r="J931" t="n">
-        <v>7555555570.5</v>
+        <v>6800000014.31</v>
       </c>
       <c r="K931" t="inlineStr"/>
     </row>
@@ -28483,9 +28415,17 @@
           <t>GP-ECFAN1201 ICE</t>
         </is>
       </c>
-      <c r="C932" t="inlineStr"/>
-      <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr"/>
+      <c r="C932" t="n">
+        <v>0</v>
+      </c>
+      <c r="D932" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>2025-02-23 to 2025-02-23</t>
+        </is>
+      </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr"/>
@@ -28493,7 +28433,7 @@
         <v>0</v>
       </c>
       <c r="J932" t="n">
-        <v>23466666688.31</v>
+        <v>22000000021.2</v>
       </c>
       <c r="K932" t="inlineStr"/>
     </row>
@@ -28518,7 +28458,7 @@
         <v>0</v>
       </c>
       <c r="J933" t="n">
-        <v>21944444451.88</v>
+        <v>19750000007.6</v>
       </c>
       <c r="K933" t="inlineStr"/>
     </row>
@@ -28543,7 +28483,7 @@
         <v>0</v>
       </c>
       <c r="J934" t="n">
-        <v>20000000009.74</v>
+        <v>17647058833.68</v>
       </c>
       <c r="K934" t="inlineStr"/>
     </row>
@@ -28568,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J935" t="n">
-        <v>33789473726.29</v>
+        <v>30571428611.03</v>
       </c>
       <c r="K935" t="inlineStr"/>
     </row>
@@ -28601,7 +28541,7 @@
         <v>0</v>
       </c>
       <c r="J936" t="n">
-        <v>39529411783.95</v>
+        <v>35368421071.41</v>
       </c>
       <c r="K936" t="inlineStr"/>
     </row>
@@ -28626,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="J937" t="n">
-        <v>13263157913.81</v>
+        <v>12000000020.96</v>
       </c>
       <c r="K937" t="inlineStr"/>
     </row>
@@ -28659,7 +28599,7 @@
         <v>0</v>
       </c>
       <c r="J938" t="n">
-        <v>18166666684.27</v>
+        <v>16350000016.66</v>
       </c>
       <c r="K938" t="inlineStr"/>
     </row>
@@ -28692,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="J939" t="n">
-        <v>27666666707.91</v>
+        <v>31350000040.29</v>
       </c>
       <c r="K939" t="inlineStr"/>
     </row>
@@ -28717,7 +28657,7 @@
         <v>0</v>
       </c>
       <c r="J940" t="n">
-        <v>15578947378.14</v>
+        <v>14095238106.25</v>
       </c>
       <c r="K940" t="inlineStr"/>
     </row>
@@ -28742,7 +28682,7 @@
         <v>0</v>
       </c>
       <c r="J941" t="n">
-        <v>37421052651.3</v>
+        <v>33857142876.47</v>
       </c>
       <c r="K941" t="inlineStr"/>
     </row>
@@ -28767,7 +28707,7 @@
         <v>0</v>
       </c>
       <c r="J942" t="n">
-        <v>56526315802.27</v>
+        <v>51142857155.63</v>
       </c>
       <c r="K942" t="inlineStr"/>
     </row>
@@ -28800,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="J943" t="n">
-        <v>20055555576.54</v>
+        <v>24150000018.88</v>
       </c>
       <c r="K943" t="inlineStr"/>
     </row>
@@ -28825,7 +28765,7 @@
         <v>0</v>
       </c>
       <c r="J944" t="n">
-        <v>27705882357.88</v>
+        <v>24789473690.45</v>
       </c>
       <c r="K944" t="inlineStr"/>
     </row>
@@ -28850,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="J945" t="n">
-        <v>15833333352.62</v>
+        <v>14250000019.21</v>
       </c>
       <c r="K945" t="inlineStr"/>
     </row>
@@ -28875,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="J946" t="n">
-        <v>16578947400.05</v>
+        <v>15000000030.63</v>
       </c>
       <c r="K946" t="inlineStr"/>
     </row>
@@ -28908,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="J947" t="n">
-        <v>17000000015.91</v>
+        <v>14733333347.98</v>
       </c>
       <c r="K947" t="inlineStr"/>
     </row>
@@ -28941,7 +28881,7 @@
         <v>0</v>
       </c>
       <c r="J948" t="n">
-        <v>3230769235.35</v>
+        <v>2800000004.03</v>
       </c>
       <c r="K948" t="inlineStr"/>
     </row>
@@ -28966,7 +28906,7 @@
         <v>0</v>
       </c>
       <c r="J949" t="n">
-        <v>1800000004.8</v>
+        <v>1285714292.33</v>
       </c>
       <c r="K949" t="inlineStr"/>
     </row>
@@ -28991,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="J950" t="n">
-        <v>2285714289.29</v>
+        <v>1777777782.78</v>
       </c>
       <c r="K950" t="inlineStr"/>
     </row>
@@ -29024,7 +28964,7 @@
         <v>0</v>
       </c>
       <c r="J951" t="n">
-        <v>5083333344.02</v>
+        <v>4357142866.94</v>
       </c>
       <c r="K951" t="inlineStr"/>
     </row>
@@ -29049,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="J952" t="n">
-        <v>14285714292.19</v>
+        <v>12500000007.41</v>
       </c>
       <c r="K952" t="inlineStr"/>
     </row>
@@ -29074,7 +29014,7 @@
         <v>0</v>
       </c>
       <c r="J953" t="n">
-        <v>4538461558.04</v>
+        <v>3933333350.99</v>
       </c>
       <c r="K953" t="inlineStr"/>
     </row>
@@ -29099,7 +29039,7 @@
         <v>0</v>
       </c>
       <c r="J954" t="n">
-        <v>8692307701.469999</v>
+        <v>7533333341.63</v>
       </c>
       <c r="K954" t="inlineStr"/>
     </row>
@@ -29124,7 +29064,7 @@
         <v>0</v>
       </c>
       <c r="J955" t="n">
-        <v>3461538471.95</v>
+        <v>3000000010.2</v>
       </c>
       <c r="K955" t="inlineStr"/>
     </row>
@@ -29149,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="J956" t="n">
-        <v>6692307702.85</v>
+        <v>5800000017.27</v>
       </c>
       <c r="K956" t="inlineStr"/>
     </row>
@@ -29174,7 +29114,7 @@
         <v>0</v>
       </c>
       <c r="J957" t="n">
-        <v>11428571463.81</v>
+        <v>8888888917.77</v>
       </c>
       <c r="K957" t="inlineStr"/>
     </row>
@@ -29199,7 +29139,7 @@
         <v>0</v>
       </c>
       <c r="J958" t="n">
-        <v>28571428579.15</v>
+        <v>22222222231.89</v>
       </c>
       <c r="K958" t="inlineStr"/>
     </row>
@@ -29224,7 +29164,7 @@
         <v>0</v>
       </c>
       <c r="J959" t="n">
-        <v>13333333333.33</v>
+        <v>8000000011.6</v>
       </c>
       <c r="K959" t="inlineStr"/>
     </row>
@@ -29249,7 +29189,7 @@
         <v>0</v>
       </c>
       <c r="J960" t="n">
-        <v>37250000000</v>
+        <v>24833333343.75</v>
       </c>
       <c r="K960" t="inlineStr"/>
     </row>
@@ -29282,7 +29222,7 @@
         <v>0</v>
       </c>
       <c r="J961" t="n">
-        <v>56400000014.79</v>
+        <v>40285714314.49</v>
       </c>
       <c r="K961" t="inlineStr"/>
     </row>
@@ -29307,7 +29247,7 @@
         <v>0</v>
       </c>
       <c r="J962" t="n">
-        <v>48000000000</v>
+        <v>41000000003.75</v>
       </c>
       <c r="K962" t="inlineStr"/>
     </row>
@@ -29322,9 +29262,17 @@
           <t>B850M GAMING X WIFI6E</t>
         </is>
       </c>
-      <c r="C963" t="inlineStr"/>
-      <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr"/>
+      <c r="C963" t="n">
+        <v>0</v>
+      </c>
+      <c r="D963" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>2025-02-23 to 2025-02-23</t>
+        </is>
+      </c>
       <c r="F963" t="inlineStr"/>
       <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr"/>
@@ -29332,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="J963" t="n">
-        <v>146666666696.73</v>
+        <v>125714285741.15</v>
       </c>
       <c r="K963" t="inlineStr"/>
     </row>
@@ -29357,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="J964" t="n">
-        <v>126000000034.5</v>
+        <v>94500000027.39</v>
       </c>
       <c r="K964" t="inlineStr"/>
     </row>
@@ -29376,11 +29324,11 @@
         <v>0</v>
       </c>
       <c r="D965" t="n">
-        <v>9.779999999999999</v>
+        <v>7.57</v>
       </c>
       <c r="E965" t="inlineStr">
         <is>
-          <t>2025-02-09 to 2025-02-09</t>
+          <t>2025-02-09 to 2025-02-16</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
@@ -29390,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="J965" t="n">
-        <v>505600000009.21</v>
+        <v>421333333342.69</v>
       </c>
       <c r="K965" t="inlineStr"/>
     </row>
@@ -29415,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="J966" t="n">
-        <v>159833333363.27</v>
+        <v>119875000031.29</v>
       </c>
       <c r="K966" t="inlineStr"/>
     </row>
@@ -29440,7 +29388,7 @@
         <v>0</v>
       </c>
       <c r="J967" t="n">
-        <v>16000000000</v>
+        <v>17000000000</v>
       </c>
       <c r="K967" t="inlineStr"/>
     </row>
@@ -29465,7 +29413,7 @@
         <v>0</v>
       </c>
       <c r="J968" t="n">
-        <v>110000000000</v>
+        <v>82000000012.5</v>
       </c>
       <c r="K968" t="inlineStr"/>
     </row>
@@ -29490,7 +29438,7 @@
         <v>0</v>
       </c>
       <c r="J969" t="n">
-        <v>10666666666.67</v>
+        <v>8000000000.5</v>
       </c>
       <c r="K969" t="inlineStr"/>
     </row>
@@ -29515,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="J970" t="n">
-        <v>304500000005.7</v>
+        <v>228375000006.76</v>
       </c>
       <c r="K970" t="inlineStr"/>
     </row>
@@ -29590,7 +29538,7 @@
         <v>0</v>
       </c>
       <c r="J973" t="n">
-        <v>13333333333.33</v>
+        <v>16000000000</v>
       </c>
       <c r="K973" t="inlineStr"/>
     </row>
@@ -29623,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="J974" t="n">
-        <v>40000000076.13</v>
+        <v>28571428630.03</v>
       </c>
       <c r="K974" t="inlineStr"/>
     </row>
@@ -29648,7 +29596,7 @@
         <v>0</v>
       </c>
       <c r="J975" t="n">
-        <v>260000000013.49</v>
+        <v>195000000011.96</v>
       </c>
       <c r="K975" t="inlineStr"/>
     </row>
@@ -29681,7 +29629,7 @@
         <v>0</v>
       </c>
       <c r="J976" t="n">
-        <v>51200000009.6</v>
+        <v>36571428578.7</v>
       </c>
       <c r="K976" t="inlineStr"/>
     </row>
@@ -29714,7 +29662,7 @@
         <v>0</v>
       </c>
       <c r="J977" t="n">
-        <v>98333333333.33</v>
+        <v>72400000006.60001</v>
       </c>
       <c r="K977" t="inlineStr"/>
     </row>
@@ -29739,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="J978" t="n">
-        <v>306600000000</v>
+        <v>286571428571.43</v>
       </c>
       <c r="K978" t="inlineStr"/>
     </row>
@@ -29764,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="J979" t="n">
-        <v>111800000000</v>
+        <v>99000000000</v>
       </c>
       <c r="K979" t="inlineStr"/>
     </row>
@@ -29789,7 +29737,7 @@
         <v>0</v>
       </c>
       <c r="J980" t="n">
-        <v>337200000000</v>
+        <v>303285714285.71</v>
       </c>
       <c r="K980" t="inlineStr"/>
     </row>
@@ -29814,7 +29762,7 @@
         <v>0</v>
       </c>
       <c r="J981" t="n">
-        <v>34250000011.75</v>
+        <v>22833333346.15</v>
       </c>
       <c r="K981" t="inlineStr"/>
     </row>
@@ -29839,7 +29787,7 @@
         <v>0</v>
       </c>
       <c r="J982" t="n">
-        <v>34500000005.25</v>
+        <v>23000000004.52</v>
       </c>
       <c r="K982" t="inlineStr"/>
     </row>
@@ -29864,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="J983" t="n">
-        <v>0</v>
+        <v>6666666666.67</v>
       </c>
       <c r="K983" t="inlineStr"/>
     </row>
@@ -29964,7 +29912,7 @@
         <v>0</v>
       </c>
       <c r="J987" t="n">
-        <v>17333333333.33</v>
+        <v>10400000000.96</v>
       </c>
       <c r="K987" t="inlineStr"/>
     </row>
@@ -29989,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="J988" t="n">
-        <v>0</v>
+        <v>6333333333.33</v>
       </c>
       <c r="K988" t="inlineStr"/>
     </row>
@@ -30014,7 +29962,7 @@
         <v>0</v>
       </c>
       <c r="J989" t="n">
-        <v>30666666666.67</v>
+        <v>18400000002.15</v>
       </c>
       <c r="K989" t="inlineStr"/>
     </row>
@@ -30039,19 +29987,19 @@
         <v>0</v>
       </c>
       <c r="J990" t="n">
-        <v>27500000003.62</v>
+        <v>18333333336.31</v>
       </c>
       <c r="K990" t="inlineStr"/>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>B0DTQT98M3</t>
+          <t>B0DTQMLX4F</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t xml:space="preserve">GV-N507TEAGLEOC ICE-16GD </t>
+          <t>GV-N5070WF3OC-12GD</t>
         </is>
       </c>
       <c r="C991" t="inlineStr"/>
@@ -30064,19 +30012,19 @@
         <v>0</v>
       </c>
       <c r="J991" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="K991" t="inlineStr"/>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>B0DTQVHQ6G</t>
+          <t>B0DTQT98M3</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>GV-N507TAERO OC-16GD</t>
+          <t xml:space="preserve">GV-N507TEAGLEOC ICE-16GD </t>
         </is>
       </c>
       <c r="C992" t="inlineStr"/>
@@ -30089,19 +30037,19 @@
         <v>0</v>
       </c>
       <c r="J992" t="n">
-        <v>5000000000</v>
+        <v>160000000000</v>
       </c>
       <c r="K992" t="inlineStr"/>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>B0DTR7GWG6</t>
+          <t>B0DTQTJQGZ</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>GV-N507TEAGLE OC-16GD</t>
+          <t>GV-N5070EAGLEOC ICE-12GD</t>
         </is>
       </c>
       <c r="C993" t="inlineStr"/>
@@ -30114,19 +30062,19 @@
         <v>0</v>
       </c>
       <c r="J993" t="n">
-        <v>5000000000</v>
+        <v>0</v>
       </c>
       <c r="K993" t="inlineStr"/>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>B0DTR8FDMN</t>
+          <t>B0DTQVHQ6G</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t xml:space="preserve">GV-N507TWF3OC-16GD </t>
+          <t>GV-N507TAERO OC-16GD</t>
         </is>
       </c>
       <c r="C994" t="inlineStr"/>
@@ -30139,19 +30087,19 @@
         <v>0</v>
       </c>
       <c r="J994" t="n">
-        <v>0</v>
+        <v>66250000000</v>
       </c>
       <c r="K994" t="inlineStr"/>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>B0DTRC7782</t>
+          <t>B0DTR3JK3Y</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t xml:space="preserve">GV-N507TGAMING OC-16GD </t>
+          <t>GV-N5070GAMING OC-12GD</t>
         </is>
       </c>
       <c r="C995" t="inlineStr"/>
@@ -30164,19 +30112,19 @@
         <v>0</v>
       </c>
       <c r="J995" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="K995" t="inlineStr"/>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>B0DTRCBYQC</t>
+          <t>B0DTR3WM7Y</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>GV-N507TAORUS M-16GD</t>
+          <t>GV-N5070AORUS M-12GD</t>
         </is>
       </c>
       <c r="C996" t="inlineStr"/>
@@ -30189,19 +30137,19 @@
         <v>0</v>
       </c>
       <c r="J996" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="K996" t="inlineStr"/>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>B0DVCGJG25</t>
+          <t>B0DTR54HZZ</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>MO27Q2</t>
+          <t>GV-N5070AERO OC-12GD</t>
         </is>
       </c>
       <c r="C997" t="inlineStr"/>
@@ -30214,9 +30162,159 @@
         <v>0</v>
       </c>
       <c r="J997" t="n">
+        <v>0</v>
+      </c>
+      <c r="K997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>B0DTR7GWG6</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>GV-N507TEAGLE OC-16GD</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr"/>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr"/>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr"/>
+      <c r="I998" t="n">
+        <v>0</v>
+      </c>
+      <c r="J998" t="n">
+        <v>25250000000</v>
+      </c>
+      <c r="K998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>B0DTR8FDMN</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GV-N507TWF3OC-16GD </t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr"/>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr"/>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr"/>
+      <c r="I999" t="n">
+        <v>0</v>
+      </c>
+      <c r="J999" t="n">
+        <v>11333333333.33</v>
+      </c>
+      <c r="K999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>B0DTRC7782</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GV-N507TGAMING OC-16GD </t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr"/>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr"/>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr"/>
+      <c r="I1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>36000000000</v>
+      </c>
+      <c r="K1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>B0DTRCBYQC</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>GV-N507TAORUS M-16GD</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr"/>
+      <c r="D1001" t="inlineStr"/>
+      <c r="E1001" t="inlineStr"/>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="inlineStr"/>
+      <c r="H1001" t="inlineStr"/>
+      <c r="I1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="K1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>B0DVCD7X5X</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>MO32U</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr"/>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="inlineStr"/>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="inlineStr"/>
+      <c r="I1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1002" t="n">
         <v>1000000000</v>
       </c>
-      <c r="K997" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>B0DVCGJG25</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>MO27Q2</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr"/>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr"/>
+      <c r="I1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="K1003" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
